--- a/Gestion de projet/Registre des actions.xlsx
+++ b/Gestion de projet/Registre des actions.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Quentin\Documents\SPORTIFS\sportifs.documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Quentin\Documents\SPORTIFS\sportifs.documents\Gestion de projet\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2045,8 +2045,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="D99" sqref="D99"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3184,13 +3184,11 @@
         <v>41600</v>
       </c>
       <c r="G39" s="1">
-        <v>41607</v>
-      </c>
-      <c r="H39" s="1">
-        <v>41607</v>
-      </c>
+        <v>41618</v>
+      </c>
+      <c r="H39" s="1"/>
       <c r="I39" t="s">
-        <v>69</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">

--- a/Gestion de projet/Registre des actions.xlsx
+++ b/Gestion de projet/Registre des actions.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="179">
   <si>
     <t>PRIORITE</t>
   </si>
@@ -394,6 +394,9 @@
     <t>Document crée</t>
   </si>
   <si>
+    <t>Détail lors de la réunion d'avancement n°2</t>
+  </si>
+  <si>
     <t>Réalisation des principaux templates (DAL, PDD, STB)</t>
   </si>
   <si>
@@ -447,6 +450,9 @@
   </si>
   <si>
     <t>Équipe bleue</t>
+  </si>
+  <si>
+    <t>Envoyer un email avec la taxonomie général et mettre en avant les classes sélectionnées.</t>
   </si>
   <si>
     <t>Ajouter une classe pour l’athlétisme.</t>
@@ -583,11 +589,7 @@
 Détail (un seul index ou plusieurs lors de la prochaine réunion)</t>
   </si>
   <si>
-    <t>Détail lors de la réunion d'avancement n°2. A mettre en évidence lors de la réunion n°3</t>
-  </si>
-  <si>
-    <t>Envoyer un email avec la taxonomie général et mettre en avant
- les classes sélectionnées.</t>
+    <t>A présenter</t>
   </si>
 </sst>
 </file>
@@ -2045,8 +2047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="J40" sqref="J40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I94" sqref="I94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2415,8 +2417,11 @@
       <c r="G12" s="1">
         <v>41614</v>
       </c>
+      <c r="H12" s="1">
+        <v>41614</v>
+      </c>
       <c r="I12" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -2440,7 +2445,7 @@
         <v>41600</v>
       </c>
       <c r="G13" s="1">
-        <v>41614</v>
+        <v>41621</v>
       </c>
       <c r="I13" t="s">
         <v>6</v>
@@ -2929,7 +2934,7 @@
         <v>41600</v>
       </c>
       <c r="G30" s="1">
-        <v>41614</v>
+        <v>41284</v>
       </c>
       <c r="I30" t="s">
         <v>6</v>
@@ -2956,7 +2961,7 @@
         <v>41600</v>
       </c>
       <c r="G31" s="1">
-        <v>41614</v>
+        <v>41628</v>
       </c>
       <c r="I31" t="s">
         <v>6</v>
@@ -2983,13 +2988,13 @@
         <v>41600</v>
       </c>
       <c r="G32" s="1">
-        <v>41614</v>
+        <v>41628</v>
       </c>
       <c r="I32" t="s">
         <v>6</v>
       </c>
       <c r="J32" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -3013,7 +3018,7 @@
         <v>41600</v>
       </c>
       <c r="G33" s="1">
-        <v>41614</v>
+        <v>41628</v>
       </c>
       <c r="I33" t="s">
         <v>6</v>
@@ -3040,7 +3045,7 @@
         <v>41600</v>
       </c>
       <c r="G34" s="1">
-        <v>41614</v>
+        <v>41628</v>
       </c>
       <c r="I34" t="s">
         <v>6</v>
@@ -3067,7 +3072,7 @@
         <v>41600</v>
       </c>
       <c r="G35" s="1">
-        <v>41614</v>
+        <v>41628</v>
       </c>
       <c r="I35" t="s">
         <v>6</v>
@@ -3127,10 +3132,10 @@
         <v>41600</v>
       </c>
       <c r="G37" s="1">
-        <v>41607</v>
+        <v>41614</v>
       </c>
       <c r="H37" s="1">
-        <v>41607</v>
+        <v>41614</v>
       </c>
       <c r="I37" t="s">
         <v>69</v>
@@ -3184,7 +3189,7 @@
         <v>41600</v>
       </c>
       <c r="G39" s="1">
-        <v>41618</v>
+        <v>41621</v>
       </c>
       <c r="H39" s="1"/>
       <c r="I39" t="s">
@@ -3212,14 +3217,14 @@
         <v>41600</v>
       </c>
       <c r="G40" s="1">
-        <v>41614</v>
+        <v>41621</v>
       </c>
       <c r="H40" s="1"/>
       <c r="I40" t="s">
         <v>6</v>
       </c>
       <c r="J40" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -3280,7 +3285,7 @@
         <v>6</v>
       </c>
       <c r="J42" t="s">
-        <v>176</v>
+        <v>119</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -3358,7 +3363,7 @@
         <v>14</v>
       </c>
       <c r="D45" s="14" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E45" t="s">
         <v>78</v>
@@ -3367,7 +3372,7 @@
         <v>41600</v>
       </c>
       <c r="G45" s="1">
-        <v>41614</v>
+        <v>41621</v>
       </c>
       <c r="I45" t="s">
         <v>6</v>
@@ -3402,7 +3407,7 @@
         <v>69</v>
       </c>
       <c r="J46" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
@@ -3454,16 +3459,14 @@
         <v>41604</v>
       </c>
       <c r="G48" s="1">
-        <v>41618</v>
-      </c>
-      <c r="H48" s="1">
-        <v>41618</v>
-      </c>
+        <v>41621</v>
+      </c>
+      <c r="H48" s="1"/>
       <c r="I48" t="s">
-        <v>69</v>
+        <v>6</v>
       </c>
       <c r="J48" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -3486,7 +3489,7 @@
         <v>41604</v>
       </c>
       <c r="G49" s="1">
-        <v>41614</v>
+        <v>41621</v>
       </c>
       <c r="H49" s="1"/>
       <c r="I49" t="s">
@@ -3513,7 +3516,7 @@
         <v>41604</v>
       </c>
       <c r="G50" s="1">
-        <v>41614</v>
+        <v>41621</v>
       </c>
       <c r="I50" t="s">
         <v>6</v>
@@ -3542,7 +3545,7 @@
         <v>41604</v>
       </c>
       <c r="G51" s="1">
-        <v>41614</v>
+        <v>41621</v>
       </c>
       <c r="I51" t="s">
         <v>6</v>
@@ -3568,7 +3571,7 @@
         <v>41604</v>
       </c>
       <c r="G52" s="1">
-        <v>41614</v>
+        <v>41621</v>
       </c>
       <c r="I52" t="s">
         <v>6</v>
@@ -3595,13 +3598,13 @@
         <v>41604</v>
       </c>
       <c r="G53" s="1">
-        <v>41614</v>
+        <v>41621</v>
       </c>
       <c r="I53" t="s">
         <v>6</v>
       </c>
       <c r="J53" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
@@ -3634,7 +3637,7 @@
         <v>69</v>
       </c>
       <c r="J54" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -3688,10 +3691,13 @@
         <v>41604</v>
       </c>
       <c r="G56" s="1">
-        <v>41614</v>
+        <v>41618</v>
       </c>
       <c r="I56" t="s">
         <v>6</v>
+      </c>
+      <c r="J56" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -3721,7 +3727,7 @@
         <v>6</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
@@ -3764,7 +3770,7 @@
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E59" t="s">
         <v>85</v>
@@ -3779,7 +3785,7 @@
         <v>6</v>
       </c>
       <c r="J59" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -3794,7 +3800,7 @@
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E60" t="s">
         <v>85</v>
@@ -3821,7 +3827,7 @@
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E61" t="s">
         <v>85</v>
@@ -3848,7 +3854,7 @@
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E62" t="s">
         <v>85</v>
@@ -3875,7 +3881,7 @@
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E63" t="s">
         <v>85</v>
@@ -3902,7 +3908,7 @@
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E64" t="s">
         <v>85</v>
@@ -3929,7 +3935,7 @@
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E65" t="s">
         <v>85</v>
@@ -3956,7 +3962,7 @@
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E66" t="s">
         <v>85</v>
@@ -3971,7 +3977,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67">
         <f t="shared" si="2"/>
         <v>65</v>
@@ -3982,11 +3988,11 @@
       <c r="C67" t="s">
         <v>9</v>
       </c>
-      <c r="D67" s="2" t="s">
-        <v>177</v>
+      <c r="D67" t="s">
+        <v>137</v>
       </c>
       <c r="E67" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F67" s="1">
         <v>41611</v>
@@ -4010,10 +4016,10 @@
         <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E68" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F68" s="1">
         <v>41611</v>
@@ -4037,10 +4043,10 @@
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E69" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F69" s="1">
         <v>41611</v>
@@ -4058,16 +4064,16 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C70" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E70" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F70" s="1">
         <v>41611</v>
@@ -4085,16 +4091,16 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C71" t="s">
         <v>14</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E71" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F71" s="1">
         <v>41611</v>
@@ -4112,16 +4118,16 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C72" t="s">
         <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E72" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F72" s="1">
         <v>41611</v>
@@ -4145,10 +4151,10 @@
         <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E73" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F73" s="1">
         <v>41611</v>
@@ -4172,10 +4178,10 @@
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E74" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F74" s="1">
         <v>41611</v>
@@ -4199,10 +4205,10 @@
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E75" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F75" s="1">
         <v>41611</v>
@@ -4226,10 +4232,10 @@
         <v>9</v>
       </c>
       <c r="D76" t="s">
+        <v>146</v>
+      </c>
+      <c r="E76" t="s">
         <v>144</v>
-      </c>
-      <c r="E76" t="s">
-        <v>142</v>
       </c>
       <c r="F76" s="1">
         <v>41611</v>
@@ -4253,10 +4259,10 @@
         <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E77" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F77" s="1">
         <v>41611</v>
@@ -4280,10 +4286,10 @@
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E78" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F78" s="1">
         <v>41611</v>
@@ -4307,10 +4313,10 @@
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E79" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F79" s="1">
         <v>41611</v>
@@ -4334,10 +4340,10 @@
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E80" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F80" s="1">
         <v>41611</v>
@@ -4349,7 +4355,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81">
         <f t="shared" si="2"/>
         <v>79</v>
@@ -4361,10 +4367,10 @@
         <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E81" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F81" s="1">
         <v>41611</v>
@@ -4376,7 +4382,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A82">
         <f t="shared" si="2"/>
         <v>80</v>
@@ -4388,10 +4394,10 @@
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E82" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F82" s="1">
         <v>41611</v>
@@ -4403,7 +4409,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A83">
         <f t="shared" si="2"/>
         <v>81</v>
@@ -4415,10 +4421,10 @@
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E83" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F83" s="1">
         <v>41611</v>
@@ -4430,7 +4436,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84">
         <f t="shared" si="2"/>
         <v>82</v>
@@ -4442,10 +4448,10 @@
         <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E84" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F84" s="1">
         <v>41611</v>
@@ -4457,7 +4463,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85">
         <f t="shared" si="2"/>
         <v>83</v>
@@ -4469,10 +4475,10 @@
         <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E85" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F85" s="1">
         <v>41611</v>
@@ -4484,7 +4490,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86">
         <f t="shared" si="2"/>
         <v>84</v>
@@ -4496,10 +4502,10 @@
         <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E86" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F86" s="1">
         <v>41611</v>
@@ -4511,7 +4517,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87">
         <f t="shared" si="2"/>
         <v>85</v>
@@ -4523,10 +4529,10 @@
         <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E87" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F87" s="1">
         <v>41611</v>
@@ -4538,7 +4544,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88">
         <f t="shared" si="2"/>
         <v>86</v>
@@ -4550,10 +4556,10 @@
         <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E88" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F88" s="1">
         <v>41611</v>
@@ -4565,7 +4571,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A89">
         <f t="shared" si="2"/>
         <v>87</v>
@@ -4577,10 +4583,10 @@
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E89" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F89" s="1">
         <v>41611</v>
@@ -4592,7 +4598,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90">
         <f t="shared" si="2"/>
         <v>88</v>
@@ -4604,10 +4610,10 @@
         <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E90" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F90" s="1">
         <v>41611</v>
@@ -4619,7 +4625,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A91">
         <f t="shared" si="2"/>
         <v>89</v>
@@ -4631,10 +4637,10 @@
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E91" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F91" s="1">
         <v>41611</v>
@@ -4646,7 +4652,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92">
         <f t="shared" si="2"/>
         <v>90</v>
@@ -4658,10 +4664,10 @@
         <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E92" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F92" s="1">
         <v>41610</v>
@@ -4672,23 +4678,26 @@
       <c r="I92" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="93" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J92" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A93">
         <f t="shared" si="2"/>
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C93" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E93" t="s">
         <v>166</v>
-      </c>
-      <c r="E93" t="s">
-        <v>164</v>
       </c>
       <c r="F93" s="1">
         <v>41610</v>
@@ -4700,7 +4709,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94">
         <f t="shared" si="2"/>
         <v>92</v>
@@ -4712,7 +4721,7 @@
         <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E94" t="s">
         <v>72</v>
@@ -4727,7 +4736,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95">
         <f t="shared" si="2"/>
         <v>93</v>
@@ -4739,7 +4748,7 @@
         <v>33</v>
       </c>
       <c r="D95" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E95" t="s">
         <v>77</v>
@@ -4750,11 +4759,14 @@
       <c r="G95" s="1">
         <v>41614</v>
       </c>
+      <c r="H95" s="1">
+        <v>41614</v>
+      </c>
       <c r="I95" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A96">
         <f t="shared" si="2"/>
         <v>94</v>
@@ -4766,7 +4778,7 @@
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E96" t="s">
         <v>77</v>
@@ -4777,8 +4789,11 @@
       <c r="G96" s="1">
         <v>41614</v>
       </c>
+      <c r="H96" s="1">
+        <v>41614</v>
+      </c>
       <c r="I96" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
@@ -4793,7 +4808,7 @@
         <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E97" t="s">
         <v>77</v>
@@ -4804,8 +4819,11 @@
       <c r="G97" s="1">
         <v>41614</v>
       </c>
+      <c r="H97" s="1">
+        <v>41614</v>
+      </c>
       <c r="I97" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
@@ -4820,7 +4838,7 @@
         <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E98" t="s">
         <v>77</v>
@@ -4850,7 +4868,7 @@
         <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E99" t="s">
         <v>77</v>
@@ -4880,7 +4898,7 @@
         <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E100" t="s">
         <v>77</v>

--- a/Gestion de projet/Registre des actions.xlsx
+++ b/Gestion de projet/Registre des actions.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Quentin\Documents\SPORTIFS\sportifs.documents\Gestion de projet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Quentin\Google Drive\M2GIL\SPORTIFS\Gestion de projet\Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,14 +17,14 @@
     <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$J$100</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$J$120</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="205">
   <si>
     <t>PRIORITE</t>
   </si>
@@ -199,9 +199,6 @@
   </si>
   <si>
     <t>COLLECTER un jeu d'image d'apprentissage/validation/tests pour la taxonomie et pour pouvoir évaluer la méthode de classification.</t>
-  </si>
-  <si>
-    <t>DECRIRE précisémment le ou les service de persistance (natures des élements gérés, arborescence pour les organiser, etc.)</t>
   </si>
   <si>
     <t>REALISER une première version des diagrammes de cas d'utilisation</t>
@@ -394,9 +391,6 @@
     <t>Document crée</t>
   </si>
   <si>
-    <t>Détail lors de la réunion d'avancement n°2</t>
-  </si>
-  <si>
     <t>Réalisation des principaux templates (DAL, PDD, STB)</t>
   </si>
   <si>
@@ -498,10 +492,6 @@
   <si>
     <t>Voir comment intégrer la recherche par similarité image 
 (lien dans le survol de l’image ?).</t>
-  </si>
-  <si>
-    <t>Vérifier s'il est possible d'afficher le nombre d'images par filtre 
-et Afficher tous les filtres</t>
   </si>
   <si>
     <t>Prévoir un test des différentes solutions de fusion des résultats lors de la réalisation (formules, un service web aggregateur, dans l’esb, ou deux services d’index et un service de recherche). Avantages / Inconvénients des solutions</t>
@@ -589,7 +579,111 @@
 Détail (un seul index ou plusieurs lors de la prochaine réunion)</t>
   </si>
   <si>
-    <t>A présenter</t>
+    <t>DECRIRE précisément le ou les service de persistance (natures des élements gérés, arborescence pour les organiser, etc.)</t>
+  </si>
+  <si>
+    <t>Vérifier s'il est possible d'afficher le nombre d'images par filtre et Afficher tous les filtres</t>
+  </si>
+  <si>
+    <t>Performances de la fusion à vérifier</t>
+  </si>
+  <si>
+    <t>Performance : flux de données</t>
+  </si>
+  <si>
+    <t>Présenter les pages par portlets</t>
+  </si>
+  <si>
+    <t>Outil??? Qui le fait?</t>
+  </si>
+  <si>
+    <t>80 ou 100</t>
+  </si>
+  <si>
+    <t>MVC Portlet</t>
+  </si>
+  <si>
+    <t>Ajouter les attributs sur le modèle de données</t>
+  </si>
+  <si>
+    <t>Détail lors de la réunion d'avancement n°2
+Comment la configurer (emplacement)?
+Chercher une solution pour le stockage des kits d'évaluation (fichiers CSV?)</t>
+  </si>
+  <si>
+    <t>Clarifier la profondeur de la collecte. Le nombre 
+d’images, la bande passante, etc. Donner un chiffre 
+pour un site</t>
+  </si>
+  <si>
+    <t>Déterminer la solution d’exposition de logs 
+(architecture) en déterminant la faisabilité avec 
+Logback ou apache CXF. 
+Détailler le fonctionnement envisagé.</t>
+  </si>
+  <si>
+    <t>Réaliser un test de performances entre les deux 
+architectures afin de comparer avec des chiffres 
+concrets la différence de puissance entre les deux.</t>
+  </si>
+  <si>
+    <t>Ajouter la portlet de visualisation affichant le détail 
+d’une image dans le diagramme des portlets par 
+utilisateur</t>
+  </si>
+  <si>
+    <t>Ajouter les données d’une image qui ne sont pas déjà 
+présentes (XMP, EXIF, IPTC) et enlever les données 
+inutiles (direction, texture)</t>
+  </si>
+  <si>
+    <t>Finaliser le design et le mettre dans les maquettes.</t>
+  </si>
+  <si>
+    <t>Envoyer les maquettes par mail avec une courte 
+description</t>
+  </si>
+  <si>
+    <t>Déterminer les technologies utilisées pour la vue</t>
+  </si>
+  <si>
+    <t>Voir le fonctionnement des MVC portlets</t>
+  </si>
+  <si>
+    <t>Voir la breadcrumb ou fil d’Ariane et la possibilité 
+de le faire sur Liferay</t>
+  </si>
+  <si>
+    <t>Voir comment modifier le design de Liferay. 
+Dossier ROOT ?</t>
+  </si>
+  <si>
+    <t>Similarités images, diminuer la taille de l’image affichée</t>
+  </si>
+  <si>
+    <t>Afficher tous les filtres et le nombre d’image pour chaque filtre</t>
+  </si>
+  <si>
+    <t>Présenter pour chaque type d’utilisateur, ce qu’il voit (les pages et les portlets)</t>
+  </si>
+  <si>
+    <t>Trouver un outil pour les miniatures</t>
+  </si>
+  <si>
+    <t>Voir la possibilité de développer un service de miniaturisation</t>
+  </si>
+  <si>
+    <t>Détailler les indicateurs de suivi de projet et les envoyer</t>
+  </si>
+  <si>
+    <t>Revoir les conventions</t>
+  </si>
+  <si>
+    <t>Rédiger les notices techniques et en profiter pour 
+se former</t>
+  </si>
+  <si>
+    <t>20/12/203</t>
   </si>
 </sst>
 </file>
@@ -778,7 +872,406 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="138">
+  <dxfs count="195">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2045,22 +2538,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J100"/>
+  <dimension ref="A1:K120"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I94" sqref="I94"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="56.140625" customWidth="1"/>
+    <col min="4" max="4" width="48.85546875" customWidth="1"/>
     <col min="5" max="5" width="23.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.140625" customWidth="1"/>
     <col min="10" max="10" width="100.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -2074,7 +2567,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>3</v>
@@ -2092,7 +2585,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>0</v>
       </c>
@@ -2103,10 +2596,10 @@
         <v>9</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F2" s="7">
         <v>41600</v>
@@ -2118,13 +2611,17 @@
         <v>41600</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="K2">
+        <f>COUNTIF(I2:I3000,"Clos")</f>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>A2+1</f>
         <v>1</v>
@@ -2139,7 +2636,7 @@
         <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F3" s="1">
         <v>41600</v>
@@ -2151,10 +2648,14 @@
         <v>41611</v>
       </c>
       <c r="I3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+      <c r="K3">
+        <f>COUNTIF(I2:I3000,"Ouvert")</f>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <f>A3+1</f>
         <v>2</v>
@@ -2169,7 +2670,7 @@
         <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F4" s="1">
         <v>41600</v>
@@ -2177,14 +2678,12 @@
       <c r="G4" s="1">
         <v>41602</v>
       </c>
-      <c r="H4" s="1">
-        <v>41602</v>
-      </c>
+      <c r="H4" s="1"/>
       <c r="I4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <f t="shared" ref="A5:A44" si="0">A4+1</f>
         <v>3</v>
@@ -2196,10 +2695,10 @@
         <v>14</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F5" s="1">
         <v>41600</v>
@@ -2211,10 +2710,10 @@
         <v>41609</v>
       </c>
       <c r="I5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2229,7 +2728,7 @@
         <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F6" s="1">
         <v>41600</v>
@@ -2241,13 +2740,13 @@
         <v>41607</v>
       </c>
       <c r="I6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2262,7 +2761,7 @@
         <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F7" s="1">
         <v>41600</v>
@@ -2274,10 +2773,10 @@
         <v>41607</v>
       </c>
       <c r="I7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2289,10 +2788,10 @@
         <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F8" s="1">
         <v>41600</v>
@@ -2304,10 +2803,10 @@
         <v>41607</v>
       </c>
       <c r="I8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2322,7 +2821,7 @@
         <v>17</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F9" s="1">
         <v>41600</v>
@@ -2334,7 +2833,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -2349,7 +2848,7 @@
         <v>18</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F10" s="1">
         <v>41600</v>
@@ -2361,10 +2860,10 @@
         <v>41609</v>
       </c>
       <c r="I10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -2376,10 +2875,10 @@
         <v>14</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F11" s="1">
         <v>41600</v>
@@ -2391,10 +2890,10 @@
         <v>41612</v>
       </c>
       <c r="I11" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -2409,22 +2908,20 @@
         <v>37</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F12" s="1">
         <v>41600</v>
       </c>
       <c r="G12" s="1">
-        <v>41614</v>
-      </c>
-      <c r="H12" s="1">
-        <v>41614</v>
-      </c>
+        <v>41629</v>
+      </c>
+      <c r="H12" s="1"/>
       <c r="I12" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -2436,10 +2933,10 @@
         <v>14</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F13" s="1">
         <v>41600</v>
@@ -2451,7 +2948,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -2466,7 +2963,7 @@
         <v>19</v>
       </c>
       <c r="E14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F14" s="1">
         <v>41600</v>
@@ -2478,17 +2975,13 @@
         <v>41607</v>
       </c>
       <c r="I14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J14" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>8</v>
       </c>
@@ -2499,25 +2992,23 @@
         <v>20</v>
       </c>
       <c r="E15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F15" s="1">
         <v>41600</v>
       </c>
       <c r="G15" s="1">
-        <v>41614</v>
-      </c>
-      <c r="H15" s="1">
-        <v>41608</v>
-      </c>
+        <v>41621</v>
+      </c>
+      <c r="H15" s="1"/>
       <c r="I15" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="B16" t="s">
         <v>8</v>
@@ -2529,7 +3020,7 @@
         <v>22</v>
       </c>
       <c r="E16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F16" s="1">
         <v>41600</v>
@@ -2541,13 +3032,13 @@
         <v>41607</v>
       </c>
       <c r="I16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="B17" t="s">
         <v>8</v>
@@ -2556,10 +3047,10 @@
         <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F17" s="1">
         <v>41600</v>
@@ -2571,13 +3062,13 @@
         <v>41608</v>
       </c>
       <c r="I17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="B18" t="s">
         <v>8</v>
@@ -2589,7 +3080,7 @@
         <v>23</v>
       </c>
       <c r="E18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F18" s="1">
         <v>41600</v>
@@ -2601,13 +3092,13 @@
         <v>41602</v>
       </c>
       <c r="I18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B19" t="s">
         <v>8</v>
@@ -2619,7 +3110,7 @@
         <v>28</v>
       </c>
       <c r="E19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F19" s="1">
         <v>41600</v>
@@ -2631,13 +3122,13 @@
         <v>41602</v>
       </c>
       <c r="I19" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -2649,7 +3140,7 @@
         <v>24</v>
       </c>
       <c r="E20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F20" s="1">
         <v>41600</v>
@@ -2661,13 +3152,13 @@
         <v>41612</v>
       </c>
       <c r="I20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
@@ -2679,7 +3170,7 @@
         <v>40</v>
       </c>
       <c r="E21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F21" s="1">
         <v>41600</v>
@@ -2691,13 +3182,13 @@
         <v>41607</v>
       </c>
       <c r="I21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -2709,7 +3200,7 @@
         <v>30</v>
       </c>
       <c r="E22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F22" s="1">
         <v>41600</v>
@@ -2721,13 +3212,13 @@
         <v>41607</v>
       </c>
       <c r="I22" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B23" t="s">
         <v>27</v>
@@ -2739,7 +3230,7 @@
         <v>29</v>
       </c>
       <c r="E23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F23" s="1">
         <v>41600</v>
@@ -2751,13 +3242,13 @@
         <v>41607</v>
       </c>
       <c r="I23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="B24" t="s">
         <v>31</v>
@@ -2769,7 +3260,7 @@
         <v>32</v>
       </c>
       <c r="E24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F24" s="1">
         <v>41600</v>
@@ -2782,7 +3273,7 @@
     <row r="25" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B25" t="s">
         <v>31</v>
@@ -2794,7 +3285,7 @@
         <v>34</v>
       </c>
       <c r="E25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F25" s="1">
         <v>41600</v>
@@ -2804,10 +3295,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B26" t="s">
         <v>8</v>
@@ -2816,10 +3307,10 @@
         <v>14</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E26" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F26" s="1">
         <v>41600</v>
@@ -2831,13 +3322,13 @@
         <v>41611</v>
       </c>
       <c r="I26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="16">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="B27" t="s">
         <v>35</v>
@@ -2849,7 +3340,7 @@
         <v>36</v>
       </c>
       <c r="E27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F27" s="1">
         <v>41600</v>
@@ -2861,10 +3352,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="17">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="B28" s="18" t="s">
         <v>35</v>
@@ -2876,7 +3367,7 @@
         <v>38</v>
       </c>
       <c r="E28" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F28" s="1">
         <v>41600</v>
@@ -2889,7 +3380,7 @@
     <row r="29" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="17">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B29" s="18" t="s">
         <v>35</v>
@@ -2898,10 +3389,10 @@
         <v>14</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E29" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F29" s="1">
         <v>41600</v>
@@ -2916,7 +3407,7 @@
     <row r="30" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="17">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="B30" s="18" t="s">
         <v>41</v>
@@ -2928,13 +3419,13 @@
         <v>42</v>
       </c>
       <c r="E30" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F30" s="1">
         <v>41600</v>
       </c>
       <c r="G30" s="1">
-        <v>41284</v>
+        <v>41649</v>
       </c>
       <c r="I30" t="s">
         <v>6</v>
@@ -2943,7 +3434,7 @@
     <row r="31" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="17">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="B31" s="18" t="s">
         <v>43</v>
@@ -2955,7 +3446,7 @@
         <v>44</v>
       </c>
       <c r="E31" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F31" s="1">
         <v>41600</v>
@@ -2970,7 +3461,7 @@
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="16">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="B32" t="s">
         <v>49</v>
@@ -2982,7 +3473,7 @@
         <v>45</v>
       </c>
       <c r="E32" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F32" s="1">
         <v>41600</v>
@@ -2994,13 +3485,13 @@
         <v>6</v>
       </c>
       <c r="J32" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="16">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="B33" t="s">
         <v>49</v>
@@ -3012,7 +3503,7 @@
         <v>46</v>
       </c>
       <c r="E33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F33" s="1">
         <v>41600</v>
@@ -3027,7 +3518,7 @@
     <row r="34" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A34">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="B34" t="s">
         <v>49</v>
@@ -3039,7 +3530,7 @@
         <v>47</v>
       </c>
       <c r="E34" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F34" s="1">
         <v>41600</v>
@@ -3051,10 +3542,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A35">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="B35" t="s">
         <v>49</v>
@@ -3066,7 +3557,7 @@
         <v>48</v>
       </c>
       <c r="E35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F35" s="1">
         <v>41600</v>
@@ -3081,10 +3572,10 @@
     <row r="36" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A36">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="B36" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C36" t="s">
         <v>14</v>
@@ -3093,7 +3584,7 @@
         <v>50</v>
       </c>
       <c r="E36" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F36" s="1">
         <v>41600</v>
@@ -3105,16 +3596,16 @@
         <v>41604</v>
       </c>
       <c r="I36" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J36" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A37">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="B37" t="s">
         <v>51</v>
@@ -3123,31 +3614,31 @@
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E37" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F37" s="1">
         <v>41600</v>
       </c>
       <c r="G37" s="1">
-        <v>41614</v>
+        <v>41618</v>
       </c>
       <c r="H37" s="1">
-        <v>41614</v>
+        <v>41618</v>
       </c>
       <c r="I37" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A38">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B38" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C38" t="s">
         <v>14</v>
@@ -3156,7 +3647,7 @@
         <v>57</v>
       </c>
       <c r="E38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F38" s="1">
         <v>41600</v>
@@ -3171,7 +3662,7 @@
     <row r="39" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A39">
         <f t="shared" si="0"/>
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="B39" t="s">
         <v>52</v>
@@ -3183,7 +3674,7 @@
         <v>53</v>
       </c>
       <c r="E39" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F39" s="1">
         <v>41600</v>
@@ -3195,11 +3686,14 @@
       <c r="I39" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J39" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A40">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="B40" t="s">
         <v>54</v>
@@ -3211,7 +3705,7 @@
         <v>55</v>
       </c>
       <c r="E40" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F40" s="1">
         <v>41600</v>
@@ -3224,25 +3718,25 @@
         <v>6</v>
       </c>
       <c r="J40" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A41">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="B41" t="s">
         <v>54</v>
       </c>
       <c r="C41" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E41" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F41" s="1">
         <v>41600</v>
@@ -3254,13 +3748,13 @@
         <v>41607</v>
       </c>
       <c r="I41" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A42">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B42" t="s">
         <v>56</v>
@@ -3269,41 +3763,41 @@
         <v>9</v>
       </c>
       <c r="D42" s="14" t="s">
-        <v>58</v>
+        <v>175</v>
       </c>
       <c r="E42" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F42" s="1">
         <v>41600</v>
       </c>
       <c r="G42" s="1">
-        <v>41618</v>
+        <v>41625</v>
       </c>
       <c r="H42" s="1"/>
       <c r="I42" t="s">
         <v>6</v>
       </c>
-      <c r="J42" t="s">
-        <v>119</v>
+      <c r="J42" s="2" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A43">
         <f t="shared" si="0"/>
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="B43" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C43" t="s">
         <v>14</v>
       </c>
       <c r="D43" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E43" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F43" s="1">
         <v>41600</v>
@@ -3315,16 +3809,16 @@
         <v>41604</v>
       </c>
       <c r="I43" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J43" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A44">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="B44" t="s">
         <v>35</v>
@@ -3333,10 +3827,10 @@
         <v>14</v>
       </c>
       <c r="D44" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F44" s="1">
         <v>41600</v>
@@ -3348,13 +3842,13 @@
         <v>41607</v>
       </c>
       <c r="I44" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="8">
         <f>A44+1</f>
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="B45" t="s">
         <v>15</v>
@@ -3363,10 +3857,10 @@
         <v>14</v>
       </c>
       <c r="D45" s="14" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E45" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F45" s="1">
         <v>41600</v>
@@ -3389,10 +3883,10 @@
         <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E46" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F46" s="1">
         <v>41600</v>
@@ -3404,10 +3898,10 @@
         <v>41614</v>
       </c>
       <c r="I46" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J46" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
@@ -3421,10 +3915,10 @@
         <v>9</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E47" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F47" s="1">
         <v>41604</v>
@@ -3436,7 +3930,7 @@
         <v>41607</v>
       </c>
       <c r="I47" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
@@ -3444,16 +3938,16 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C48" t="s">
         <v>14</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E48" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F48" s="1">
         <v>41604</v>
@@ -3466,10 +3960,10 @@
         <v>6</v>
       </c>
       <c r="J48" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>47</v>
       </c>
@@ -3480,10 +3974,10 @@
         <v>9</v>
       </c>
       <c r="D49" s="21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E49" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F49" s="1">
         <v>41604</v>
@@ -3501,16 +3995,16 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C50" t="s">
         <v>9</v>
       </c>
       <c r="D50" t="s">
+        <v>101</v>
+      </c>
+      <c r="E50" t="s">
         <v>102</v>
-      </c>
-      <c r="E50" t="s">
-        <v>103</v>
       </c>
       <c r="F50" s="1">
         <v>41604</v>
@@ -3522,7 +4016,7 @@
         <v>6</v>
       </c>
       <c r="J50" t="s">
-        <v>116</v>
+        <v>178</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
@@ -3536,10 +4030,10 @@
         <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E51" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F51" s="1">
         <v>41604</v>
@@ -3562,10 +4056,10 @@
         <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E52" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F52" s="1">
         <v>41604</v>
@@ -3589,10 +4083,10 @@
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E53" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F53" s="1">
         <v>41604</v>
@@ -3604,7 +4098,7 @@
         <v>6</v>
       </c>
       <c r="J53" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
@@ -3619,10 +4113,10 @@
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E54" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F54" s="1">
         <v>41604</v>
@@ -3634,10 +4128,10 @@
         <v>41609</v>
       </c>
       <c r="I54" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J54" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -3652,10 +4146,10 @@
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E55" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F55" s="1">
         <v>41604</v>
@@ -3667,10 +4161,10 @@
         <v>41607</v>
       </c>
       <c r="I55" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A56">
         <f t="shared" si="1"/>
         <v>54</v>
@@ -3682,10 +4176,10 @@
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E56" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F56" s="1">
         <v>41604</v>
@@ -3697,7 +4191,7 @@
         <v>6</v>
       </c>
       <c r="J56" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -3711,10 +4205,10 @@
         <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E57" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F57" s="1">
         <v>41604</v>
@@ -3722,12 +4216,14 @@
       <c r="G57" s="1">
         <v>41618</v>
       </c>
-      <c r="H57" s="1"/>
+      <c r="H57" s="1">
+        <v>41618</v>
+      </c>
       <c r="I57" t="s">
-        <v>6</v>
+        <v>68</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
@@ -3741,10 +4237,10 @@
         <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E58" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F58" s="1">
         <v>41604</v>
@@ -3756,7 +4252,7 @@
         <v>41607</v>
       </c>
       <c r="I58" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
@@ -3770,10 +4266,10 @@
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E59" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F59" s="1">
         <v>41611</v>
@@ -3781,29 +4277,32 @@
       <c r="G59" s="1">
         <v>41618</v>
       </c>
+      <c r="H59" s="1">
+        <v>41618</v>
+      </c>
       <c r="I59" t="s">
-        <v>6</v>
+        <v>68</v>
       </c>
       <c r="J59" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A60">
         <f>A59+1</f>
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C60" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E60" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F60" s="1">
         <v>41611</v>
@@ -3811,26 +4310,29 @@
       <c r="G60" s="1">
         <v>41618</v>
       </c>
+      <c r="H60" s="1">
+        <v>41618</v>
+      </c>
       <c r="I60" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A61">
-        <f t="shared" ref="A61:A100" si="2">A60+1</f>
+        <f t="shared" ref="A61:A120" si="2">A60+1</f>
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C61" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E61" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F61" s="1">
         <v>41611</v>
@@ -3838,8 +4340,11 @@
       <c r="G61" s="1">
         <v>41618</v>
       </c>
+      <c r="H61" s="1">
+        <v>41618</v>
+      </c>
       <c r="I61" t="s">
-        <v>6</v>
+        <v>68</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -3848,16 +4353,16 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C62" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E62" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F62" s="1">
         <v>41611</v>
@@ -3865,11 +4370,14 @@
       <c r="G62" s="1">
         <v>41618</v>
       </c>
+      <c r="H62" s="1">
+        <v>41618</v>
+      </c>
       <c r="I62" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A63">
         <f t="shared" si="2"/>
         <v>61</v>
@@ -3881,10 +4389,10 @@
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E63" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F63" s="1">
         <v>41611</v>
@@ -3892,11 +4400,14 @@
       <c r="G63" s="1">
         <v>41618</v>
       </c>
+      <c r="H63" s="1">
+        <v>41614</v>
+      </c>
       <c r="I63" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A64">
         <f t="shared" si="2"/>
         <v>62</v>
@@ -3908,10 +4419,10 @@
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E64" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F64" s="1">
         <v>41611</v>
@@ -3919,11 +4430,14 @@
       <c r="G64" s="1">
         <v>41618</v>
       </c>
+      <c r="H64" s="1">
+        <v>41614</v>
+      </c>
       <c r="I64" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A65">
         <f t="shared" si="2"/>
         <v>63</v>
@@ -3935,37 +4449,37 @@
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F65" s="1">
         <v>41611</v>
       </c>
       <c r="G65" s="1">
-        <v>41618</v>
+        <v>41625</v>
       </c>
       <c r="I65" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A66">
         <f t="shared" si="2"/>
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C66" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E66" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F66" s="1">
         <v>41611</v>
@@ -3976,8 +4490,11 @@
       <c r="I66" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J66" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67">
         <f t="shared" si="2"/>
         <v>65</v>
@@ -3989,10 +4506,10 @@
         <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E67" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F67" s="1">
         <v>41611</v>
@@ -4000,11 +4517,14 @@
       <c r="G67" s="1">
         <v>41618</v>
       </c>
+      <c r="H67" s="1">
+        <v>41618</v>
+      </c>
       <c r="I67" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68">
         <f t="shared" si="2"/>
         <v>66</v>
@@ -4016,10 +4536,10 @@
         <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E68" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F68" s="1">
         <v>41611</v>
@@ -4027,11 +4547,14 @@
       <c r="G68" s="1">
         <v>41618</v>
       </c>
+      <c r="H68" s="1">
+        <v>41618</v>
+      </c>
       <c r="I68" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A69">
         <f t="shared" si="2"/>
         <v>67</v>
@@ -4043,10 +4566,10 @@
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E69" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F69" s="1">
         <v>41611</v>
@@ -4054,26 +4577,29 @@
       <c r="G69" s="1">
         <v>41618</v>
       </c>
+      <c r="H69" s="1">
+        <v>41618</v>
+      </c>
       <c r="I69" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A70">
         <f t="shared" si="2"/>
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C70" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E70" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F70" s="1">
         <v>41611</v>
@@ -4081,26 +4607,29 @@
       <c r="G70" s="1">
         <v>41618</v>
       </c>
+      <c r="H70" s="1">
+        <v>41618</v>
+      </c>
       <c r="I70" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A71">
         <f t="shared" si="2"/>
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C71" t="s">
         <v>14</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E71" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F71" s="1">
         <v>41611</v>
@@ -4108,38 +4637,44 @@
       <c r="G71" s="1">
         <v>41618</v>
       </c>
+      <c r="H71" s="1">
+        <v>41618</v>
+      </c>
       <c r="I71" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72">
         <f t="shared" si="2"/>
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C72" t="s">
         <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E72" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F72" s="1">
         <v>41611</v>
       </c>
       <c r="G72" s="1">
-        <v>41618</v>
+        <v>41611</v>
+      </c>
+      <c r="H72" s="1">
+        <v>41611</v>
       </c>
       <c r="I72" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73">
         <f t="shared" si="2"/>
         <v>71</v>
@@ -4151,10 +4686,10 @@
         <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E73" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F73" s="1">
         <v>41611</v>
@@ -4166,7 +4701,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A74">
         <f t="shared" si="2"/>
         <v>72</v>
@@ -4178,10 +4713,10 @@
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="E74" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F74" s="1">
         <v>41611</v>
@@ -4193,7 +4728,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A75">
         <f t="shared" si="2"/>
         <v>73</v>
@@ -4205,10 +4740,10 @@
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E75" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F75" s="1">
         <v>41611</v>
@@ -4220,7 +4755,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76">
         <f t="shared" si="2"/>
         <v>74</v>
@@ -4232,10 +4767,10 @@
         <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E76" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F76" s="1">
         <v>41611</v>
@@ -4243,11 +4778,14 @@
       <c r="G76" s="1">
         <v>41618</v>
       </c>
+      <c r="H76" s="1">
+        <v>41618</v>
+      </c>
       <c r="I76" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77">
         <f t="shared" si="2"/>
         <v>75</v>
@@ -4259,10 +4797,10 @@
         <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E77" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F77" s="1">
         <v>41611</v>
@@ -4270,11 +4808,17 @@
       <c r="G77" s="1">
         <v>41618</v>
       </c>
+      <c r="H77" s="1">
+        <v>41618</v>
+      </c>
       <c r="I77" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+      <c r="J77" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A78">
         <f t="shared" si="2"/>
         <v>76</v>
@@ -4286,10 +4830,10 @@
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E78" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F78" s="1">
         <v>41611</v>
@@ -4301,7 +4845,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A79">
         <f t="shared" si="2"/>
         <v>77</v>
@@ -4313,10 +4857,10 @@
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E79" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F79" s="1">
         <v>41611</v>
@@ -4324,11 +4868,14 @@
       <c r="G79" s="1">
         <v>41618</v>
       </c>
+      <c r="H79" s="1">
+        <v>41618</v>
+      </c>
       <c r="I79" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A80">
         <f t="shared" si="2"/>
         <v>78</v>
@@ -4340,10 +4887,10 @@
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E80" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F80" s="1">
         <v>41611</v>
@@ -4351,8 +4898,14 @@
       <c r="G80" s="1">
         <v>41618</v>
       </c>
+      <c r="H80" s="1">
+        <v>41618</v>
+      </c>
       <c r="I80" t="s">
-        <v>6</v>
+        <v>68</v>
+      </c>
+      <c r="J80" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
@@ -4367,10 +4920,10 @@
         <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E81" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F81" s="1">
         <v>41611</v>
@@ -4382,7 +4935,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A82">
         <f t="shared" si="2"/>
         <v>80</v>
@@ -4394,10 +4947,10 @@
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E82" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F82" s="1">
         <v>41611</v>
@@ -4421,10 +4974,10 @@
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E83" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F83" s="1">
         <v>41611</v>
@@ -4432,8 +4985,11 @@
       <c r="G83" s="1">
         <v>41618</v>
       </c>
+      <c r="H83" s="1">
+        <v>41618</v>
+      </c>
       <c r="I83" t="s">
-        <v>6</v>
+        <v>68</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
@@ -4448,10 +5004,10 @@
         <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E84" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F84" s="1">
         <v>41611</v>
@@ -4475,10 +5031,10 @@
         <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E85" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F85" s="1">
         <v>41611</v>
@@ -4502,10 +5058,10 @@
         <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E86" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F86" s="1">
         <v>41611</v>
@@ -4529,10 +5085,10 @@
         <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E87" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F87" s="1">
         <v>41611</v>
@@ -4556,10 +5112,10 @@
         <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E88" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F88" s="1">
         <v>41611</v>
@@ -4571,7 +5127,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="89" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A89">
         <f t="shared" si="2"/>
         <v>87</v>
@@ -4583,10 +5139,10 @@
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E89" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F89" s="1">
         <v>41611</v>
@@ -4610,10 +5166,10 @@
         <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E90" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F90" s="1">
         <v>41611</v>
@@ -4625,7 +5181,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A91">
         <f t="shared" si="2"/>
         <v>89</v>
@@ -4637,10 +5193,10 @@
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E91" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F91" s="1">
         <v>41611</v>
@@ -4664,22 +5220,25 @@
         <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E92" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F92" s="1">
         <v>41610</v>
       </c>
       <c r="G92" s="1">
-        <v>41614</v>
+        <v>41618</v>
+      </c>
+      <c r="H92" s="1">
+        <v>41618</v>
       </c>
       <c r="I92" t="s">
-        <v>6</v>
+        <v>68</v>
       </c>
       <c r="J92" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="93" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -4688,16 +5247,16 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C93" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E93" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F93" s="1">
         <v>41610</v>
@@ -4721,10 +5280,10 @@
         <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E94" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F94" s="1">
         <v>41610</v>
@@ -4748,10 +5307,10 @@
         <v>33</v>
       </c>
       <c r="D95" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E95" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F95" s="1">
         <v>41611</v>
@@ -4763,7 +5322,7 @@
         <v>41614</v>
       </c>
       <c r="I95" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="96" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -4778,10 +5337,10 @@
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E96" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F96" s="1">
         <v>41611</v>
@@ -4793,7 +5352,7 @@
         <v>41614</v>
       </c>
       <c r="I96" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
@@ -4808,10 +5367,10 @@
         <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E97" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F97" s="1">
         <v>41611</v>
@@ -4823,7 +5382,7 @@
         <v>41614</v>
       </c>
       <c r="I97" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
@@ -4838,10 +5397,10 @@
         <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E98" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F98" s="1">
         <v>41611</v>
@@ -4853,7 +5412,7 @@
         <v>41612</v>
       </c>
       <c r="I98" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
@@ -4868,10 +5427,10 @@
         <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E99" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F99" s="1">
         <v>41611</v>
@@ -4883,7 +5442,7 @@
         <v>41612</v>
       </c>
       <c r="I99" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
@@ -4898,10 +5457,10 @@
         <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E100" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F100" s="1">
         <v>41611</v>
@@ -4913,397 +5472,1124 @@
         <v>41612</v>
       </c>
       <c r="I100" t="s">
-        <v>69</v>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <f t="shared" si="2"/>
+        <v>99</v>
+      </c>
+      <c r="B101" t="s">
+        <v>56</v>
+      </c>
+      <c r="C101" t="s">
+        <v>9</v>
+      </c>
+      <c r="D101" t="s">
+        <v>183</v>
+      </c>
+      <c r="E101" t="s">
+        <v>84</v>
+      </c>
+      <c r="F101" s="1">
+        <v>41618</v>
+      </c>
+      <c r="G101" s="1">
+        <v>41625</v>
+      </c>
+      <c r="I101" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="B102" t="s">
+        <v>62</v>
+      </c>
+      <c r="C102" t="s">
+        <v>9</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E102" t="s">
+        <v>84</v>
+      </c>
+      <c r="F102" s="1">
+        <v>41618</v>
+      </c>
+      <c r="G102" s="1">
+        <v>41625</v>
+      </c>
+      <c r="I102" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <f t="shared" si="2"/>
+        <v>101</v>
+      </c>
+      <c r="B103" t="s">
+        <v>98</v>
+      </c>
+      <c r="C103" t="s">
+        <v>9</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E103" t="s">
+        <v>84</v>
+      </c>
+      <c r="F103" s="1">
+        <v>41618</v>
+      </c>
+      <c r="G103" s="1">
+        <v>41625</v>
+      </c>
+      <c r="I103" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <f t="shared" si="2"/>
+        <v>102</v>
+      </c>
+      <c r="B104" t="s">
+        <v>141</v>
+      </c>
+      <c r="C104" t="s">
+        <v>9</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E104" t="s">
+        <v>86</v>
+      </c>
+      <c r="F104" s="1">
+        <v>41618</v>
+      </c>
+      <c r="G104" s="1">
+        <v>41625</v>
+      </c>
+      <c r="I104" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <f t="shared" si="2"/>
+        <v>103</v>
+      </c>
+      <c r="B105" t="s">
+        <v>49</v>
+      </c>
+      <c r="C105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E105" t="s">
+        <v>83</v>
+      </c>
+      <c r="F105" s="1">
+        <v>41618</v>
+      </c>
+      <c r="G105" s="1">
+        <v>41625</v>
+      </c>
+      <c r="I105" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <f t="shared" si="2"/>
+        <v>104</v>
+      </c>
+      <c r="B106" t="s">
+        <v>49</v>
+      </c>
+      <c r="C106" t="s">
+        <v>9</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E106" t="s">
+        <v>83</v>
+      </c>
+      <c r="F106" s="1">
+        <v>41618</v>
+      </c>
+      <c r="G106" s="1">
+        <v>41625</v>
+      </c>
+      <c r="I106" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <f t="shared" si="2"/>
+        <v>105</v>
+      </c>
+      <c r="B107" t="s">
+        <v>49</v>
+      </c>
+      <c r="C107" t="s">
+        <v>9</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E107" t="s">
+        <v>83</v>
+      </c>
+      <c r="F107" s="1">
+        <v>41618</v>
+      </c>
+      <c r="G107" s="1">
+        <v>41625</v>
+      </c>
+      <c r="I107" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <f t="shared" si="2"/>
+        <v>106</v>
+      </c>
+      <c r="B108" t="s">
+        <v>49</v>
+      </c>
+      <c r="C108" t="s">
+        <v>9</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E108" t="s">
+        <v>83</v>
+      </c>
+      <c r="F108" s="1">
+        <v>41618</v>
+      </c>
+      <c r="G108" s="1">
+        <v>41625</v>
+      </c>
+      <c r="I108" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <f t="shared" si="2"/>
+        <v>107</v>
+      </c>
+      <c r="B109" t="s">
+        <v>49</v>
+      </c>
+      <c r="C109" t="s">
+        <v>9</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E109" t="s">
+        <v>83</v>
+      </c>
+      <c r="F109" s="1">
+        <v>41618</v>
+      </c>
+      <c r="G109" s="1">
+        <v>41625</v>
+      </c>
+      <c r="I109" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <f t="shared" si="2"/>
+        <v>108</v>
+      </c>
+      <c r="B110" t="s">
+        <v>49</v>
+      </c>
+      <c r="C110" t="s">
+        <v>9</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E110" t="s">
+        <v>83</v>
+      </c>
+      <c r="F110" s="1">
+        <v>41618</v>
+      </c>
+      <c r="G110" s="1">
+        <v>41625</v>
+      </c>
+      <c r="I110" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <f t="shared" si="2"/>
+        <v>109</v>
+      </c>
+      <c r="B111" t="s">
+        <v>49</v>
+      </c>
+      <c r="C111" t="s">
+        <v>9</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E111" t="s">
+        <v>83</v>
+      </c>
+      <c r="F111" s="1">
+        <v>41618</v>
+      </c>
+      <c r="G111" s="1">
+        <v>41625</v>
+      </c>
+      <c r="I111" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <f t="shared" si="2"/>
+        <v>110</v>
+      </c>
+      <c r="B112" t="s">
+        <v>49</v>
+      </c>
+      <c r="C112" t="s">
+        <v>9</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E112" t="s">
+        <v>83</v>
+      </c>
+      <c r="F112" s="1">
+        <v>41618</v>
+      </c>
+      <c r="G112" s="1">
+        <v>41625</v>
+      </c>
+      <c r="I112" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <f t="shared" si="2"/>
+        <v>111</v>
+      </c>
+      <c r="B113" t="s">
+        <v>49</v>
+      </c>
+      <c r="C113" t="s">
+        <v>9</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E113" t="s">
+        <v>83</v>
+      </c>
+      <c r="F113" s="1">
+        <v>41618</v>
+      </c>
+      <c r="G113" s="1">
+        <v>41625</v>
+      </c>
+      <c r="I113" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <f t="shared" si="2"/>
+        <v>112</v>
+      </c>
+      <c r="B114" t="s">
+        <v>49</v>
+      </c>
+      <c r="C114" t="s">
+        <v>9</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E114" t="s">
+        <v>83</v>
+      </c>
+      <c r="F114" s="1">
+        <v>41618</v>
+      </c>
+      <c r="G114" s="1">
+        <v>41625</v>
+      </c>
+      <c r="I114" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <f t="shared" si="2"/>
+        <v>113</v>
+      </c>
+      <c r="B115" t="s">
+        <v>49</v>
+      </c>
+      <c r="C115" t="s">
+        <v>9</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E115" t="s">
+        <v>83</v>
+      </c>
+      <c r="F115" s="1">
+        <v>41618</v>
+      </c>
+      <c r="G115" s="1">
+        <v>41625</v>
+      </c>
+      <c r="I115" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <f t="shared" si="2"/>
+        <v>114</v>
+      </c>
+      <c r="B116" t="s">
+        <v>16</v>
+      </c>
+      <c r="C116" t="s">
+        <v>9</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E116" t="s">
+        <v>71</v>
+      </c>
+      <c r="F116" s="1">
+        <v>41618</v>
+      </c>
+      <c r="G116" s="1">
+        <v>41625</v>
+      </c>
+      <c r="I116" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <f t="shared" si="2"/>
+        <v>115</v>
+      </c>
+      <c r="B117" t="s">
+        <v>16</v>
+      </c>
+      <c r="C117" t="s">
+        <v>9</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E117" t="s">
+        <v>71</v>
+      </c>
+      <c r="F117" s="1">
+        <v>41618</v>
+      </c>
+      <c r="G117" s="1">
+        <v>41625</v>
+      </c>
+      <c r="I117" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <f t="shared" si="2"/>
+        <v>116</v>
+      </c>
+      <c r="B118" t="s">
+        <v>26</v>
+      </c>
+      <c r="C118" t="s">
+        <v>9</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E118" t="s">
+        <v>76</v>
+      </c>
+      <c r="F118" s="1">
+        <v>41618</v>
+      </c>
+      <c r="G118" s="1">
+        <v>41625</v>
+      </c>
+      <c r="I118" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <f t="shared" si="2"/>
+        <v>117</v>
+      </c>
+      <c r="B119" t="s">
+        <v>26</v>
+      </c>
+      <c r="C119" t="s">
+        <v>9</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E119" t="s">
+        <v>76</v>
+      </c>
+      <c r="F119" s="1">
+        <v>41618</v>
+      </c>
+      <c r="G119" s="1">
+        <v>41625</v>
+      </c>
+      <c r="I119" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <f t="shared" si="2"/>
+        <v>118</v>
+      </c>
+      <c r="B120" t="s">
+        <v>35</v>
+      </c>
+      <c r="C120" t="s">
+        <v>9</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E120" t="s">
+        <v>35</v>
+      </c>
+      <c r="F120" s="1">
+        <v>41617</v>
+      </c>
+      <c r="G120" t="s">
+        <v>204</v>
+      </c>
+      <c r="I120" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J100"/>
-  <conditionalFormatting sqref="C1:C44 E14 E9 E24 E27 E32 E39 E42 E3:E7 C46:C50 C60:C61 C65:C1048576">
-    <cfRule type="cellIs" dxfId="137" priority="142" operator="equal">
+  <autoFilter ref="A1:J120"/>
+  <conditionalFormatting sqref="C1:C44 E14 E9 E24 E27 E32 E39 E42 E3:E7 C46:C50 C60:C61 C65:C1048576 E120 G120">
+    <cfRule type="cellIs" dxfId="194" priority="163" operator="equal">
       <formula>"Faible"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="143" operator="equal">
+    <cfRule type="cellIs" dxfId="193" priority="164" operator="equal">
       <formula>"Moyenne"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="135" priority="144" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="165" operator="equal">
       <formula>"Haute"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15:E17">
-    <cfRule type="cellIs" dxfId="134" priority="139" operator="equal">
+    <cfRule type="cellIs" dxfId="191" priority="160" operator="equal">
       <formula>"Faible"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="140" operator="equal">
+    <cfRule type="cellIs" dxfId="190" priority="161" operator="equal">
       <formula>"Moyenne"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="141" operator="equal">
+    <cfRule type="cellIs" dxfId="189" priority="162" operator="equal">
       <formula>"Haute"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19">
-    <cfRule type="cellIs" dxfId="131" priority="133" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="154" operator="equal">
       <formula>"Faible"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="134" operator="equal">
+    <cfRule type="cellIs" dxfId="187" priority="155" operator="equal">
       <formula>"Moyenne"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="135" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="156" operator="equal">
       <formula>"Haute"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20">
-    <cfRule type="cellIs" dxfId="128" priority="130" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="151" operator="equal">
       <formula>"Faible"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="127" priority="131" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="152" operator="equal">
       <formula>"Moyenne"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="132" operator="equal">
+    <cfRule type="cellIs" dxfId="183" priority="153" operator="equal">
       <formula>"Haute"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="cellIs" dxfId="125" priority="127" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="148" operator="equal">
       <formula>"Faible"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="128" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="149" operator="equal">
       <formula>"Moyenne"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="123" priority="129" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="150" operator="equal">
       <formula>"Haute"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="cellIs" dxfId="122" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="179" priority="145" operator="equal">
       <formula>"Faible"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="125" operator="equal">
+    <cfRule type="cellIs" dxfId="178" priority="146" operator="equal">
       <formula>"Moyenne"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="126" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="147" operator="equal">
       <formula>"Haute"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="119" priority="121" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="142" operator="equal">
       <formula>"Faible"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="122" operator="equal">
+    <cfRule type="cellIs" dxfId="175" priority="143" operator="equal">
       <formula>"Moyenne"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="144" operator="equal">
       <formula>"Haute"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25">
-    <cfRule type="cellIs" dxfId="116" priority="118" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="139" operator="equal">
       <formula>"Faible"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="115" priority="119" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="140" operator="equal">
       <formula>"Moyenne"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="120" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="141" operator="equal">
       <formula>"Haute"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33">
-    <cfRule type="cellIs" dxfId="113" priority="115" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="136" operator="equal">
       <formula>"Faible"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="116" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="137" operator="equal">
       <formula>"Moyenne"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="111" priority="117" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="138" operator="equal">
       <formula>"Haute"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="110" priority="112" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="133" operator="equal">
       <formula>"Faible"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="113" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="134" operator="equal">
       <formula>"Moyenne"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="114" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="135" operator="equal">
       <formula>"Haute"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E35">
-    <cfRule type="cellIs" dxfId="107" priority="109" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="130" operator="equal">
       <formula>"Faible"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="110" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="131" operator="equal">
       <formula>"Moyenne"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="132" operator="equal">
       <formula>"Haute"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E36">
-    <cfRule type="cellIs" dxfId="104" priority="106" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="127" operator="equal">
       <formula>"Faible"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="103" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="128" operator="equal">
       <formula>"Moyenne"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="129" operator="equal">
       <formula>"Haute"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37">
-    <cfRule type="cellIs" dxfId="101" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="124" operator="equal">
       <formula>"Faible"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="125" operator="equal">
       <formula>"Moyenne"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="99" priority="105" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="126" operator="equal">
       <formula>"Haute"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E43:E44">
-    <cfRule type="cellIs" dxfId="98" priority="100" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="121" operator="equal">
       <formula>"Faible"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="122" operator="equal">
       <formula>"Moyenne"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="123" operator="equal">
       <formula>"Haute"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C45 E45">
-    <cfRule type="cellIs" dxfId="95" priority="97" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="118" operator="equal">
       <formula>"Faible"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="119" operator="equal">
       <formula>"Moyenne"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="120" operator="equal">
       <formula>"Haute"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D46:E46">
-    <cfRule type="cellIs" dxfId="92" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="115" operator="equal">
       <formula>"Faible"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="116" operator="equal">
       <formula>"Moyenne"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="117" operator="equal">
       <formula>"Haute"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E48">
-    <cfRule type="cellIs" dxfId="89" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="112" operator="equal">
       <formula>"Faible"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="113" operator="equal">
       <formula>"Moyenne"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="114" operator="equal">
       <formula>"Haute"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E50">
-    <cfRule type="cellIs" dxfId="86" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="109" operator="equal">
       <formula>"Faible"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="110" operator="equal">
       <formula>"Moyenne"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="111" operator="equal">
       <formula>"Haute"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C51">
-    <cfRule type="cellIs" dxfId="83" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="106" operator="equal">
       <formula>"Faible"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="107" operator="equal">
       <formula>"Moyenne"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="108" operator="equal">
       <formula>"Haute"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51">
-    <cfRule type="cellIs" dxfId="80" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="103" operator="equal">
       <formula>"Faible"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="104" operator="equal">
       <formula>"Moyenne"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="105" operator="equal">
       <formula>"Haute"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C52">
-    <cfRule type="cellIs" dxfId="77" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="100" operator="equal">
       <formula>"Faible"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="101" operator="equal">
       <formula>"Moyenne"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="102" operator="equal">
       <formula>"Haute"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E52">
-    <cfRule type="cellIs" dxfId="74" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="97" operator="equal">
       <formula>"Faible"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="98" operator="equal">
       <formula>"Moyenne"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="99" operator="equal">
       <formula>"Haute"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C53">
-    <cfRule type="cellIs" dxfId="71" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="94" operator="equal">
       <formula>"Faible"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="95" operator="equal">
       <formula>"Moyenne"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="96" operator="equal">
       <formula>"Haute"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="68" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="91" operator="equal">
       <formula>"Faible"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="92" operator="equal">
       <formula>"Moyenne"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="93" operator="equal">
       <formula>"Haute"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C54">
-    <cfRule type="cellIs" dxfId="65" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="88" operator="equal">
       <formula>"Faible"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="89" operator="equal">
       <formula>"Moyenne"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="90" operator="equal">
       <formula>"Haute"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E54">
-    <cfRule type="cellIs" dxfId="62" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="85" operator="equal">
       <formula>"Faible"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="86" operator="equal">
       <formula>"Moyenne"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="87" operator="equal">
       <formula>"Haute"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C55">
-    <cfRule type="cellIs" dxfId="59" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="82" operator="equal">
       <formula>"Faible"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="83" operator="equal">
       <formula>"Moyenne"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="84" operator="equal">
       <formula>"Haute"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E55">
-    <cfRule type="cellIs" dxfId="56" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="79" operator="equal">
       <formula>"Faible"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="80" operator="equal">
       <formula>"Moyenne"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="81" operator="equal">
       <formula>"Haute"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C56">
-    <cfRule type="cellIs" dxfId="53" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="76" operator="equal">
       <formula>"Faible"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="77" operator="equal">
       <formula>"Moyenne"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="78" operator="equal">
       <formula>"Haute"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E56">
-    <cfRule type="cellIs" dxfId="50" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="73" operator="equal">
       <formula>"Faible"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="74" operator="equal">
       <formula>"Moyenne"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="75" operator="equal">
       <formula>"Haute"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C57">
-    <cfRule type="cellIs" dxfId="47" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="70" operator="equal">
       <formula>"Faible"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="71" operator="equal">
       <formula>"Moyenne"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="72" operator="equal">
       <formula>"Haute"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C58">
-    <cfRule type="cellIs" dxfId="44" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="67" operator="equal">
       <formula>"Faible"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="68" operator="equal">
       <formula>"Moyenne"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="69" operator="equal">
       <formula>"Haute"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C59">
-    <cfRule type="cellIs" dxfId="41" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="64" operator="equal">
       <formula>"Faible"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="65" operator="equal">
       <formula>"Moyenne"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="66" operator="equal">
       <formula>"Haute"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E57">
-    <cfRule type="cellIs" dxfId="38" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="61" operator="equal">
       <formula>"Faible"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="62" operator="equal">
       <formula>"Moyenne"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="63" operator="equal">
       <formula>"Haute"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E58">
-    <cfRule type="cellIs" dxfId="35" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="58" operator="equal">
       <formula>"Faible"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="59" operator="equal">
       <formula>"Moyenne"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="60" operator="equal">
       <formula>"Haute"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E66">
+    <cfRule type="cellIs" dxfId="89" priority="22" operator="equal">
+      <formula>"Faible"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="88" priority="23" operator="equal">
+      <formula>"Moyenne"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="87" priority="24" operator="equal">
+      <formula>"Haute"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E59">
+    <cfRule type="cellIs" dxfId="86" priority="52" operator="equal">
+      <formula>"Faible"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="85" priority="53" operator="equal">
+      <formula>"Moyenne"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="84" priority="54" operator="equal">
+      <formula>"Haute"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E60">
+    <cfRule type="cellIs" dxfId="83" priority="49" operator="equal">
+      <formula>"Faible"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="82" priority="50" operator="equal">
+      <formula>"Moyenne"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="81" priority="51" operator="equal">
+      <formula>"Haute"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E61">
+    <cfRule type="cellIs" dxfId="80" priority="46" operator="equal">
+      <formula>"Faible"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="79" priority="47" operator="equal">
+      <formula>"Moyenne"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="78" priority="48" operator="equal">
+      <formula>"Haute"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C62">
+    <cfRule type="cellIs" dxfId="77" priority="43" operator="equal">
+      <formula>"Faible"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="76" priority="44" operator="equal">
+      <formula>"Moyenne"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="75" priority="45" operator="equal">
+      <formula>"Haute"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E62">
+    <cfRule type="cellIs" dxfId="74" priority="40" operator="equal">
+      <formula>"Faible"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="73" priority="41" operator="equal">
+      <formula>"Moyenne"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="72" priority="42" operator="equal">
+      <formula>"Haute"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E63">
+    <cfRule type="cellIs" dxfId="71" priority="37" operator="equal">
+      <formula>"Faible"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="70" priority="38" operator="equal">
+      <formula>"Moyenne"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="69" priority="39" operator="equal">
+      <formula>"Haute"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C63">
+    <cfRule type="cellIs" dxfId="68" priority="34" operator="equal">
+      <formula>"Faible"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="67" priority="35" operator="equal">
+      <formula>"Moyenne"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="66" priority="36" operator="equal">
+      <formula>"Haute"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C64">
+    <cfRule type="cellIs" dxfId="65" priority="31" operator="equal">
+      <formula>"Faible"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="64" priority="32" operator="equal">
+      <formula>"Moyenne"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="63" priority="33" operator="equal">
+      <formula>"Haute"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E64">
+    <cfRule type="cellIs" dxfId="62" priority="28" operator="equal">
+      <formula>"Faible"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="61" priority="29" operator="equal">
+      <formula>"Moyenne"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="60" priority="30" operator="equal">
+      <formula>"Haute"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E65">
+    <cfRule type="cellIs" dxfId="59" priority="25" operator="equal">
+      <formula>"Faible"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="58" priority="26" operator="equal">
+      <formula>"Moyenne"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="57" priority="27" operator="equal">
+      <formula>"Haute"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E101">
+    <cfRule type="cellIs" dxfId="56" priority="19" operator="equal">
+      <formula>"Faible"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="55" priority="20" operator="equal">
+      <formula>"Moyenne"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="54" priority="21" operator="equal">
+      <formula>"Haute"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E102">
+    <cfRule type="cellIs" dxfId="53" priority="16" operator="equal">
+      <formula>"Faible"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="17" operator="equal">
+      <formula>"Moyenne"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="51" priority="18" operator="equal">
+      <formula>"Haute"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E103">
+    <cfRule type="cellIs" dxfId="50" priority="13" operator="equal">
+      <formula>"Faible"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="49" priority="14" operator="equal">
+      <formula>"Moyenne"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="15" operator="equal">
+      <formula>"Haute"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E104">
+    <cfRule type="cellIs" dxfId="47" priority="10" operator="equal">
+      <formula>"Faible"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="11" operator="equal">
+      <formula>"Moyenne"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="45" priority="12" operator="equal">
+      <formula>"Haute"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E105">
+    <cfRule type="cellIs" dxfId="44" priority="7" operator="equal">
+      <formula>"Faible"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="43" priority="8" operator="equal">
+      <formula>"Moyenne"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="9" operator="equal">
+      <formula>"Haute"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E109">
+    <cfRule type="cellIs" dxfId="38" priority="4" operator="equal">
+      <formula>"Faible"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="37" priority="5" operator="equal">
+      <formula>"Moyenne"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="6" operator="equal">
+      <formula>"Haute"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E111">
     <cfRule type="cellIs" dxfId="32" priority="1" operator="equal">
       <formula>"Faible"</formula>
     </cfRule>
@@ -5311,116 +6597,6 @@
       <formula>"Moyenne"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="30" priority="3" operator="equal">
-      <formula>"Haute"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E59">
-    <cfRule type="cellIs" dxfId="29" priority="31" operator="equal">
-      <formula>"Faible"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="32" operator="equal">
-      <formula>"Moyenne"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="33" operator="equal">
-      <formula>"Haute"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E60">
-    <cfRule type="cellIs" dxfId="26" priority="28" operator="equal">
-      <formula>"Faible"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="29" operator="equal">
-      <formula>"Moyenne"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="30" operator="equal">
-      <formula>"Haute"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E61">
-    <cfRule type="cellIs" dxfId="23" priority="25" operator="equal">
-      <formula>"Faible"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="26" operator="equal">
-      <formula>"Moyenne"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="27" operator="equal">
-      <formula>"Haute"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C62">
-    <cfRule type="cellIs" dxfId="20" priority="22" operator="equal">
-      <formula>"Faible"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="23" operator="equal">
-      <formula>"Moyenne"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="24" operator="equal">
-      <formula>"Haute"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E62">
-    <cfRule type="cellIs" dxfId="17" priority="19" operator="equal">
-      <formula>"Faible"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="20" operator="equal">
-      <formula>"Moyenne"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="21" operator="equal">
-      <formula>"Haute"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E63">
-    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
-      <formula>"Faible"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="17" operator="equal">
-      <formula>"Moyenne"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="18" operator="equal">
-      <formula>"Haute"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C63">
-    <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
-      <formula>"Faible"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="14" operator="equal">
-      <formula>"Moyenne"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="15" operator="equal">
-      <formula>"Haute"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C64">
-    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
-      <formula>"Faible"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="11" operator="equal">
-      <formula>"Moyenne"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="12" operator="equal">
-      <formula>"Haute"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E64">
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
-      <formula>"Faible"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
-      <formula>"Moyenne"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="9" operator="equal">
-      <formula>"Haute"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E65">
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
-      <formula>"Faible"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
-      <formula>"Moyenne"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
       <formula>"Haute"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Gestion de projet/Registre des actions.xlsx
+++ b/Gestion de projet/Registre des actions.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Quentin\Google Drive\M2GIL\SPORTIFS\Gestion de projet\Planning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Quentin\Google Drive\M2GIL\SPORTIFS\MOE\Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,14 +17,14 @@
     <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$J$120</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$J$151</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="247">
   <si>
     <t>PRIORITE</t>
   </si>
@@ -313,9 +313,6 @@
 Jonathan Lemonsu</t>
   </si>
   <si>
-    <t xml:space="preserve">24/11/2013 Discussion lors de la réunion avec les chefs de projets et lors de la première réunion d'avancement </t>
-  </si>
-  <si>
     <t>Très Haute</t>
   </si>
   <si>
@@ -362,10 +359,6 @@
 Mettre en place les rôles définit dans le CCTP</t>
   </si>
   <si>
-    <t>Présenter l’organisation de l’application en termes de droits 
-d’accès des utilisateurs, ce qu’ils voient etc…</t>
-  </si>
-  <si>
     <t>Comment persister les informations de classifications.</t>
   </si>
   <si>
@@ -378,10 +371,6 @@
     <t>Utilisation de crawler4J et de Rome</t>
   </si>
   <si>
-    <t>Commencer à rédiger le document d'analyse des risques. 
-Retravailler les plans d'action</t>
-  </si>
-  <si>
     <t>En cours</t>
   </si>
   <si>
@@ -392,12 +381,6 @@
   </si>
   <si>
     <t>Réalisation des principaux templates (DAL, PDD, STB)</t>
-  </si>
-  <si>
-    <t>Première version lors de la réunion d'avancement n°2. En attente de la version finale</t>
-  </si>
-  <si>
-    <t>Mise en place de notre propre portlet pour les alertes(gain de temps)</t>
   </si>
   <si>
     <t>Finir de remplir la matrice de traçabilité (reprenant les exigences du CCTP)</t>
@@ -570,9 +553,6 @@
   </si>
   <si>
     <t>Envoyer les conventions</t>
-  </si>
-  <si>
-    <t>Discussion sur l'outils Logback. Faire un choix entre logback et ApacheCXF</t>
   </si>
   <si>
     <t>Présentation lors de la réunion d'avancement n°2 (ajout d'un dossier dans le contexte de Tomcat)
@@ -683,7 +663,198 @@
 se former</t>
   </si>
   <si>
-    <t>20/12/203</t>
+    <t>RISQUES</t>
+  </si>
+  <si>
+    <t>Mettre un porteur et une date sur les 4 risques 
+identifiés. Mettre à jour les risques présents dans le
+ portefeuille des risques</t>
+  </si>
+  <si>
+    <t>Pierre Bonnet / 
+Quentin Bisson</t>
+  </si>
+  <si>
+    <t>Ajouter un risque sur les vecteurs SIFT</t>
+  </si>
+  <si>
+    <t>Présenter la fonctionnalité MoreLikeThis. Comment intégrer les métadonnées textuelles dans le classement d’une image</t>
+  </si>
+  <si>
+    <t>Essayer les algorithmes de classification sur d’autres 
+classes / images.</t>
+  </si>
+  <si>
+    <t>Déterminer les éléments discriminants pour la 
+classification d’une image (métadonnées textuelles 
+et image (locales ou globales))</t>
+  </si>
+  <si>
+    <t>Équipe jaune</t>
+  </si>
+  <si>
+    <t>Trouver une solution pour la gestion des logs</t>
+  </si>
+  <si>
+    <t>Pour Logback, utiliser le web service existant au sein de celui-ci afin d’afficher les logs. Accès direct depuis une 
+portlet (petals). Vérifier la faisabilité de la solution. Sinon, voir aussi s’il ne serait pas possible de créer sa 
+propre API pour pallier les soucis rencontrés.</t>
+  </si>
+  <si>
+    <t>Comment gérer les logs (nombre de lignes, repartir 
+au début du fichier) ? Possibilité de trier les logs
+ (Error, Warning, Info) ?</t>
+  </si>
+  <si>
+    <t>Voir pour ajouter la création des miniatures dans la 
+couche de persistance (implémentation d’un 
+service généré par le service builder)</t>
+  </si>
+  <si>
+    <t>Équipe jaune 
+/Quentin Bisson</t>
+  </si>
+  <si>
+    <t>Voir l’homogénéité des miniatures : 
+bandes noires ou transparences pour 
+combler les différences de tailles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Équipe jaune </t>
+  </si>
+  <si>
+    <t>Utilisation de padding et cropping pour créer un thumbnail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Faire des tests de performances avec les indexes, 
+voir aussi le temps de chargement des listes. </t>
+  </si>
+  <si>
+    <t>Revoir la distribution des rôles au niveau du contenu 
+des pages (Un Administrateur doit avoir accès au 
+contenu d’un Superviseur qui doit lui-même avoir 
+accès au contenu d’un Utilisateur)</t>
+  </si>
+  <si>
+    <t>Trouver une solution pour les filtres (utilisation du OR)
+ ? Non affichage des filtres non combinables ?</t>
+  </si>
+  <si>
+    <t>Équipe orange</t>
+  </si>
+  <si>
+    <t>Mettre en gras les filtres actuels</t>
+  </si>
+  <si>
+    <t>Revoir l’ergonomie et l’usage des filtres</t>
+  </si>
+  <si>
+    <t>Regarder les développements sur WebLab au niveau
+ des remontées de résultat de filtre (par exemple, Vitalas)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Les images uploadées seront certainement stockées, 
+afin de pouvoir réaliser des alertes en comparaison 
+d’image : voir comment effectuer ce stockage. 
+Ajout d’un dossier Alert ? Quand l’ajouter ? 
+Dans le service de persistance ? 
+Même question que pour les miniatures</t>
+  </si>
+  <si>
+    <t>Supprimer le nombre d’images non vues depuis la 
+dernière connexion (le « 15 » dans les maquettes)</t>
+  </si>
+  <si>
+    <t>Vérifier les facettes existantes dans Lucene 
+pour voir si elles sont utilisables dans le cas des 
+filtres de recherche</t>
+  </si>
+  <si>
+    <t>Prévoir l’auto-complétion dans la saisie des URL 
+pour les sites de collecte</t>
+  </si>
+  <si>
+    <t>Enlever la portlet de gauche dans la gestion de 
+collectes (portlet contenu la liste des sites) et 
+ajouter des vérifications</t>
+  </si>
+  <si>
+    <t>Mettre en évidence la collecte en cours d’édition</t>
+  </si>
+  <si>
+    <t>Afficher le tableau des collectes en bas sur la portlet. 
+Permettre de le trier.</t>
+  </si>
+  <si>
+    <t>Revoir la gestion de fréquence de collecte 
+(notamment pour les RSS)</t>
+  </si>
+  <si>
+    <t>Revoir le système d’affichage des images 
+pour la taxonomie</t>
+  </si>
+  <si>
+    <t>Matrice de confusion : Afficher le total de mauvais 
+classements</t>
+  </si>
+  <si>
+    <t>Lire la notice WebLab disponible sur le Drive</t>
+  </si>
+  <si>
+    <t>Envoyer les entrées/sorties des fiches de tâches aux 
+chefs d’équipe.</t>
+  </si>
+  <si>
+    <t>SPECIFICATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24/11/2013 Discussion lors de la réunion avec les chefs 
+de projets et lors de la première réunion d'avancement </t>
+  </si>
+  <si>
+    <t>Discussion sur l'outils Logback. Faire un choix entre 
+logback et ApacheCXF</t>
+  </si>
+  <si>
+    <t>Première version lors de la réunion d'avancement n°2. 
+En attente de la version finale</t>
+  </si>
+  <si>
+    <t>Mise en place de notre propre portlet pour les alertes
+(gain de temps)</t>
+  </si>
+  <si>
+    <t>Fermés</t>
+  </si>
+  <si>
+    <t>Ouvertes</t>
+  </si>
+  <si>
+    <t>Commencer à rédiger le document d'analyse des risques. Retravailler les plans d'action</t>
+  </si>
+  <si>
+    <t>Présenter l’organisation de l’application en termes de droits d’accès des utilisateurs, ce qu’ils voient etc…</t>
+  </si>
+  <si>
+    <t>Finir le MCD et préparer le modèle physique. 
+Ajout dans les tables de jointure entre la table image 
+et la table modèle et la table image et la table kits, 
+un champ classe permettant d’indiquer la vérité 
+terrain déterminée par le superviseur. En fait, le but est de permettre d'avoir des classes déterminées par le système (dans la table image) et des classes déterminées par le superviseur qui seront misent en place dans la table de jointure (kits-images) et (modèles - images), d'où la nécessité d'avoir un MPD permettant de montrer toutes les relations et les tables de jointures sachant que le MPD est à fournir dans le DAL de l'équipe Jaune</t>
+  </si>
+  <si>
+    <t>Mettre à jour les risques et montrer l’évolution de 
+leur criticité (flèches montantes ou descendantes). Montrer la tendance croissante ou décroissante des risques (+ de risques, - de risques, criticité plus forte, …)</t>
+  </si>
+  <si>
+    <t>Proposer, avant les vacances, la partie IHM sur les 
+Alertes ainsi que les interfaces qui n'ont pas été présentées (Admin, upload d'une image, etc) (envoie par mail)</t>
+  </si>
+  <si>
+    <t>DOCUMENTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Envoi des documents au plus tard le 29 Décembre </t>
   </si>
 </sst>
 </file>
@@ -693,7 +864,7 @@
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -709,8 +880,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11.5"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -731,12 +909,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -748,27 +920,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -848,31 +1005,537 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="195">
+  <dxfs count="267">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2538,10 +3201,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K120"/>
+  <dimension ref="A1:M167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="D158" sqref="D158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2550,10 +3213,10 @@
     <col min="4" max="4" width="48.85546875" customWidth="1"/>
     <col min="5" max="5" width="23.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.140625" customWidth="1"/>
-    <col min="10" max="10" width="100.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="51.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -2584,8 +3247,15 @@
       <c r="J1" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L1" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="M1">
+        <f>COUNTIF(I2:I3000,"Clos")</f>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>0</v>
       </c>
@@ -2616,12 +3286,15 @@
       <c r="J2" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="K2">
-        <f>COUNTIF(I2:I3000,"Clos")</f>
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L2" t="s">
+        <v>239</v>
+      </c>
+      <c r="M2">
+        <f>COUNTIF(I2:I3000,"Ouvert")</f>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>A2+1</f>
         <v>1</v>
@@ -2650,13 +3323,9 @@
       <c r="I3" t="s">
         <v>68</v>
       </c>
-      <c r="K3">
-        <f>COUNTIF(I2:I3000,"Ouvert")</f>
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
+    </row>
+    <row r="4" spans="1:13" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
         <f>A3+1</f>
         <v>2</v>
       </c>
@@ -2678,14 +3347,16 @@
       <c r="G4" s="1">
         <v>41602</v>
       </c>
-      <c r="H4" s="1"/>
+      <c r="H4" s="1">
+        <v>41602</v>
+      </c>
       <c r="I4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
-        <f t="shared" ref="A5:A44" si="0">A4+1</f>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <f t="shared" ref="A5:A68" si="0">A4+1</f>
         <v>3</v>
       </c>
       <c r="B5" t="s">
@@ -2713,8 +3384,8 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
+    <row r="6" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -2742,12 +3413,12 @@
       <c r="I6" t="s">
         <v>68</v>
       </c>
-      <c r="J6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
+      <c r="J6" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -2776,8 +3447,8 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="10">
+    <row r="8" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -2790,7 +3461,7 @@
       <c r="D8" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E8" s="22" t="s">
+      <c r="E8" s="19" t="s">
         <v>76</v>
       </c>
       <c r="F8" s="1">
@@ -2806,7 +3477,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2827,13 +3498,13 @@
         <v>41600</v>
       </c>
       <c r="G9" s="1">
-        <v>41614</v>
+        <v>41628</v>
       </c>
       <c r="I9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -2863,7 +3534,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -2893,7 +3564,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -2914,14 +3585,14 @@
         <v>41600</v>
       </c>
       <c r="G12" s="1">
-        <v>41629</v>
+        <v>41628</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -2942,13 +3613,13 @@
         <v>41600</v>
       </c>
       <c r="G13" s="1">
-        <v>41621</v>
+        <v>41628</v>
       </c>
       <c r="I13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -2978,10 +3649,14 @@
         <v>68</v>
       </c>
       <c r="J14" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
       <c r="B15" t="s">
         <v>8</v>
       </c>
@@ -3005,10 +3680,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="9">
+    <row r="16" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
         <v>8</v>
@@ -3038,7 +3713,7 @@
     <row r="17" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
         <v>8</v>
@@ -3047,7 +3722,7 @@
         <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E17" t="s">
         <v>80</v>
@@ -3068,7 +3743,7 @@
     <row r="18" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
         <v>8</v>
@@ -3098,7 +3773,7 @@
     <row r="19" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
         <v>8</v>
@@ -3128,7 +3803,7 @@
     <row r="20" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -3158,7 +3833,7 @@
     <row r="21" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
@@ -3186,9 +3861,9 @@
       </c>
     </row>
     <row r="22" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="8">
+      <c r="A22">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -3218,7 +3893,7 @@
     <row r="23" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B23" t="s">
         <v>27</v>
@@ -3248,7 +3923,7 @@
     <row r="24" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B24" t="s">
         <v>31</v>
@@ -3265,7 +3940,9 @@
       <c r="F24" s="1">
         <v>41600</v>
       </c>
-      <c r="G24" s="15"/>
+      <c r="G24" s="14">
+        <v>41645</v>
+      </c>
       <c r="I24" t="s">
         <v>6</v>
       </c>
@@ -3273,7 +3950,7 @@
     <row r="25" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>31</v>
@@ -3290,7 +3967,9 @@
       <c r="F25" s="1">
         <v>41600</v>
       </c>
-      <c r="G25" s="1"/>
+      <c r="G25" s="14">
+        <v>41645</v>
+      </c>
       <c r="I25" t="s">
         <v>6</v>
       </c>
@@ -3298,7 +3977,7 @@
     <row r="26" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B26" t="s">
         <v>8</v>
@@ -3315,8 +3994,8 @@
       <c r="F26" s="1">
         <v>41600</v>
       </c>
-      <c r="G26" s="1">
-        <v>41614</v>
+      <c r="G26" s="14">
+        <v>41645</v>
       </c>
       <c r="H26" s="1">
         <v>41611</v>
@@ -3326,9 +4005,9 @@
       </c>
     </row>
     <row r="27" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="16">
+      <c r="A27">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B27" t="s">
         <v>35</v>
@@ -3353,11 +4032,11 @@
       </c>
     </row>
     <row r="28" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="17">
+      <c r="A28">
         <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B28" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="15" t="s">
         <v>35</v>
       </c>
       <c r="C28" t="s">
@@ -3372,17 +4051,19 @@
       <c r="F28" s="1">
         <v>41600</v>
       </c>
-      <c r="G28" s="15"/>
+      <c r="G28" s="14">
+        <v>41645</v>
+      </c>
       <c r="I28" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A29" s="17">
+      <c r="A29">
         <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B29" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="15" t="s">
         <v>35</v>
       </c>
       <c r="C29" t="s">
@@ -3405,11 +4086,11 @@
       </c>
     </row>
     <row r="30" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="17">
+      <c r="A30">
         <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B30" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="15" t="s">
         <v>41</v>
       </c>
       <c r="C30" t="s">
@@ -3432,11 +4113,11 @@
       </c>
     </row>
     <row r="31" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="17">
+      <c r="A31">
         <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B31" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="15" t="s">
         <v>43</v>
       </c>
       <c r="C31" t="s">
@@ -3446,7 +4127,7 @@
         <v>44</v>
       </c>
       <c r="E31" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F31" s="1">
         <v>41600</v>
@@ -3459,9 +4140,9 @@
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="16">
+      <c r="A32">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="B32" t="s">
         <v>49</v>
@@ -3485,13 +4166,13 @@
         <v>6</v>
       </c>
       <c r="J32" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="16">
+      <c r="A33">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="B33" t="s">
         <v>49</v>
@@ -3518,7 +4199,7 @@
     <row r="34" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A34">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B34" t="s">
         <v>49</v>
@@ -3545,7 +4226,7 @@
     <row r="35" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A35">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="B35" t="s">
         <v>49</v>
@@ -3572,7 +4253,7 @@
     <row r="36" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A36">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="B36" t="s">
         <v>62</v>
@@ -3599,13 +4280,13 @@
         <v>68</v>
       </c>
       <c r="J36" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A37">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="B37" t="s">
         <v>51</v>
@@ -3614,7 +4295,7 @@
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E37" t="s">
         <v>85</v>
@@ -3635,7 +4316,7 @@
     <row r="38" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A38">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="B38" t="s">
         <v>67</v>
@@ -3662,7 +4343,7 @@
     <row r="39" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A39">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="B39" t="s">
         <v>52</v>
@@ -3687,13 +4368,13 @@
         <v>6</v>
       </c>
       <c r="J39" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A40">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="B40" t="s">
         <v>54</v>
@@ -3718,22 +4399,22 @@
         <v>6</v>
       </c>
       <c r="J40" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A41">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="B41" t="s">
         <v>54</v>
       </c>
-      <c r="C41" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="D41" s="13" t="s">
-        <v>100</v>
+      <c r="C41" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>99</v>
       </c>
       <c r="E41" t="s">
         <v>85</v>
@@ -3751,10 +4432,10 @@
         <v>68</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A42">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="B42" t="s">
         <v>56</v>
@@ -3762,8 +4443,8 @@
       <c r="C42" t="s">
         <v>9</v>
       </c>
-      <c r="D42" s="14" t="s">
-        <v>175</v>
+      <c r="D42" s="13" t="s">
+        <v>169</v>
       </c>
       <c r="E42" t="s">
         <v>84</v>
@@ -3779,13 +4460,13 @@
         <v>6</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A43">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="B43" t="s">
         <v>61</v>
@@ -3793,7 +4474,7 @@
       <c r="C43" t="s">
         <v>14</v>
       </c>
-      <c r="D43" s="14" t="s">
+      <c r="D43" s="13" t="s">
         <v>63</v>
       </c>
       <c r="E43" t="s">
@@ -3812,13 +4493,13 @@
         <v>68</v>
       </c>
       <c r="J43" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A44">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="B44" t="s">
         <v>35</v>
@@ -3826,7 +4507,7 @@
       <c r="C44" t="s">
         <v>14</v>
       </c>
-      <c r="D44" s="14" t="s">
+      <c r="D44" s="13" t="s">
         <v>66</v>
       </c>
       <c r="E44" t="s">
@@ -3846,9 +4527,9 @@
       </c>
     </row>
     <row r="45" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="8">
-        <f>A44+1</f>
-        <v>30</v>
+      <c r="A45">
+        <f t="shared" si="0"/>
+        <v>43</v>
       </c>
       <c r="B45" t="s">
         <v>15</v>
@@ -3856,8 +4537,8 @@
       <c r="C45" t="s">
         <v>14</v>
       </c>
-      <c r="D45" s="14" t="s">
-        <v>121</v>
+      <c r="D45" s="13" t="s">
+        <v>116</v>
       </c>
       <c r="E45" t="s">
         <v>77</v>
@@ -3874,6 +4555,7 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46">
+        <f t="shared" si="0"/>
         <v>44</v>
       </c>
       <c r="B46" t="s">
@@ -3883,7 +4565,7 @@
         <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E46" t="s">
         <v>80</v>
@@ -3901,11 +4583,12 @@
         <v>68</v>
       </c>
       <c r="J46" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47">
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="B47" t="s">
@@ -3914,10 +4597,10 @@
       <c r="C47" t="s">
         <v>9</v>
       </c>
-      <c r="D47" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="E47" s="20" t="s">
+      <c r="D47" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E47" s="17" t="s">
         <v>76</v>
       </c>
       <c r="F47" s="1">
@@ -3933,18 +4616,19 @@
         <v>68</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A48">
+        <f t="shared" si="0"/>
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C48" t="s">
         <v>14</v>
       </c>
-      <c r="D48" s="12" t="s">
-        <v>99</v>
+      <c r="D48" s="11" t="s">
+        <v>98</v>
       </c>
       <c r="E48" t="s">
         <v>84</v>
@@ -3959,12 +4643,13 @@
       <c r="I48" t="s">
         <v>6</v>
       </c>
-      <c r="J48" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="J48" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A49">
+        <f t="shared" si="0"/>
         <v>47</v>
       </c>
       <c r="B49" t="s">
@@ -3973,25 +4658,28 @@
       <c r="C49" t="s">
         <v>9</v>
       </c>
-      <c r="D49" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="E49" s="20" t="s">
+      <c r="D49" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="E49" s="17" t="s">
         <v>71</v>
       </c>
       <c r="F49" s="1">
         <v>41604</v>
       </c>
       <c r="G49" s="1">
-        <v>41621</v>
-      </c>
-      <c r="H49" s="1"/>
+        <v>41628</v>
+      </c>
+      <c r="H49" s="1">
+        <v>41628</v>
+      </c>
       <c r="I49" t="s">
-        <v>6</v>
+        <v>68</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50">
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="B50" t="s">
@@ -4001,10 +4689,10 @@
         <v>9</v>
       </c>
       <c r="D50" t="s">
+        <v>100</v>
+      </c>
+      <c r="E50" t="s">
         <v>101</v>
-      </c>
-      <c r="E50" t="s">
-        <v>102</v>
       </c>
       <c r="F50" s="1">
         <v>41604</v>
@@ -4016,11 +4704,12 @@
         <v>6</v>
       </c>
       <c r="J50" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51">
+        <f t="shared" si="0"/>
         <v>49</v>
       </c>
       <c r="B51" t="s">
@@ -4030,7 +4719,7 @@
         <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E51" t="s">
         <v>85</v>
@@ -4047,6 +4736,7 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52">
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="B52" t="s">
@@ -4056,7 +4746,7 @@
         <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E52" t="s">
         <v>85</v>
@@ -4071,19 +4761,19 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A53">
-        <f t="shared" ref="A53:A56" si="1">A52+1</f>
+        <f t="shared" si="0"/>
         <v>51</v>
       </c>
       <c r="B53" t="s">
         <v>49</v>
       </c>
-      <c r="C53" s="19" t="s">
+      <c r="C53" s="16" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E53" t="s">
         <v>83</v>
@@ -4092,28 +4782,31 @@
         <v>41604</v>
       </c>
       <c r="G53" s="1">
-        <v>41621</v>
+        <v>41628</v>
+      </c>
+      <c r="H53" s="1">
+        <v>41625</v>
       </c>
       <c r="I53" t="s">
-        <v>6</v>
-      </c>
-      <c r="J53" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>52</v>
       </c>
       <c r="B54" t="s">
         <v>49</v>
       </c>
-      <c r="C54" s="19" t="s">
+      <c r="C54" s="16" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E54" t="s">
         <v>83</v>
@@ -4130,23 +4823,23 @@
       <c r="I54" t="s">
         <v>68</v>
       </c>
-      <c r="J54" t="s">
-        <v>120</v>
+      <c r="J54" s="2" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>53</v>
       </c>
       <c r="B55" t="s">
         <v>49</v>
       </c>
-      <c r="C55" s="19" t="s">
+      <c r="C55" s="16" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E55" t="s">
         <v>83</v>
@@ -4166,17 +4859,17 @@
     </row>
     <row r="56" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>54</v>
       </c>
       <c r="B56" t="s">
         <v>49</v>
       </c>
-      <c r="C56" s="19" t="s">
+      <c r="C56" s="16" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>109</v>
+        <v>241</v>
       </c>
       <c r="E56" t="s">
         <v>83</v>
@@ -4191,21 +4884,22 @@
         <v>6</v>
       </c>
       <c r="J56" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A57">
+        <f t="shared" si="0"/>
         <v>55</v>
       </c>
       <c r="B57" t="s">
         <v>56</v>
       </c>
-      <c r="C57" s="19" t="s">
+      <c r="C57" s="16" t="s">
         <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E57" t="s">
         <v>84</v>
@@ -4223,21 +4917,22 @@
         <v>68</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58">
+        <f t="shared" si="0"/>
         <v>56</v>
       </c>
       <c r="B58" t="s">
         <v>56</v>
       </c>
-      <c r="C58" s="19" t="s">
+      <c r="C58" s="16" t="s">
         <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E58" t="s">
         <v>84</v>
@@ -4257,16 +4952,17 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59">
+        <f t="shared" si="0"/>
         <v>57</v>
       </c>
       <c r="B59" t="s">
         <v>56</v>
       </c>
-      <c r="C59" s="9" t="s">
+      <c r="C59" s="8" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E59" t="s">
         <v>84</v>
@@ -4284,22 +4980,22 @@
         <v>68</v>
       </c>
       <c r="J59" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A60">
-        <f>A59+1</f>
+        <f t="shared" si="0"/>
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C60" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E60" t="s">
         <v>84</v>
@@ -4319,7 +5015,7 @@
     </row>
     <row r="61" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A61">
-        <f t="shared" ref="A61:A120" si="2">A60+1</f>
+        <f t="shared" si="0"/>
         <v>59</v>
       </c>
       <c r="B61" t="s">
@@ -4329,7 +5025,7 @@
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E61" t="s">
         <v>84</v>
@@ -4349,7 +5045,7 @@
     </row>
     <row r="62" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A62">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="B62" t="s">
@@ -4359,7 +5055,7 @@
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E62" t="s">
         <v>84</v>
@@ -4379,7 +5075,7 @@
     </row>
     <row r="63" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A63">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>61</v>
       </c>
       <c r="B63" t="s">
@@ -4389,7 +5085,7 @@
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="E63" t="s">
         <v>84</v>
@@ -4409,7 +5105,7 @@
     </row>
     <row r="64" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A64">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>62</v>
       </c>
       <c r="B64" t="s">
@@ -4419,7 +5115,7 @@
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E64" t="s">
         <v>84</v>
@@ -4439,7 +5135,7 @@
     </row>
     <row r="65" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A65">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>63</v>
       </c>
       <c r="B65" t="s">
@@ -4449,7 +5145,7 @@
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="E65" t="s">
         <v>84</v>
@@ -4466,7 +5162,7 @@
     </row>
     <row r="66" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A66">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>64</v>
       </c>
       <c r="B66" t="s">
@@ -4476,7 +5172,7 @@
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E66" t="s">
         <v>84</v>
@@ -4485,18 +5181,21 @@
         <v>41611</v>
       </c>
       <c r="G66" s="1">
-        <v>41618</v>
+        <v>41625</v>
+      </c>
+      <c r="H66" s="1">
+        <v>41625</v>
       </c>
       <c r="I66" t="s">
-        <v>6</v>
+        <v>68</v>
       </c>
       <c r="J66" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>65</v>
       </c>
       <c r="B67" t="s">
@@ -4506,10 +5205,10 @@
         <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E67" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="F67" s="1">
         <v>41611</v>
@@ -4526,7 +5225,7 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>66</v>
       </c>
       <c r="B68" t="s">
@@ -4536,10 +5235,10 @@
         <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E68" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="F68" s="1">
         <v>41611</v>
@@ -4556,7 +5255,7 @@
     </row>
     <row r="69" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A69">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="A69:A101" si="1">A68+1</f>
         <v>67</v>
       </c>
       <c r="B69" t="s">
@@ -4566,10 +5265,10 @@
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="E69" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="F69" s="1">
         <v>41611</v>
@@ -4586,20 +5285,20 @@
     </row>
     <row r="70" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A70">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C70" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="E70" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="F70" s="1">
         <v>41611</v>
@@ -4616,20 +5315,20 @@
     </row>
     <row r="71" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A71">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C71" t="s">
         <v>14</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="E71" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="F71" s="1">
         <v>41611</v>
@@ -4646,20 +5345,20 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C72" t="s">
         <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="E72" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="F72" s="1">
         <v>41611</v>
@@ -4676,7 +5375,7 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>71</v>
       </c>
       <c r="B73" t="s">
@@ -4686,24 +5385,27 @@
         <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E73" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="F73" s="1">
         <v>41611</v>
       </c>
       <c r="G73" s="1">
-        <v>41618</v>
+        <v>41628</v>
+      </c>
+      <c r="H73" s="1">
+        <v>41625</v>
       </c>
       <c r="I73" t="s">
-        <v>6</v>
+        <v>68</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A74">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>72</v>
       </c>
       <c r="B74" t="s">
@@ -4713,10 +5415,10 @@
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="E74" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="F74" s="1">
         <v>41611</v>
@@ -4730,7 +5432,7 @@
     </row>
     <row r="75" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A75">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>73</v>
       </c>
       <c r="B75" t="s">
@@ -4740,10 +5442,10 @@
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="E75" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="F75" s="1">
         <v>41611</v>
@@ -4757,7 +5459,7 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>74</v>
       </c>
       <c r="B76" t="s">
@@ -4767,10 +5469,10 @@
         <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="E76" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="F76" s="1">
         <v>41611</v>
@@ -4787,7 +5489,7 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>75</v>
       </c>
       <c r="B77" t="s">
@@ -4797,10 +5499,10 @@
         <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E77" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="F77" s="1">
         <v>41611</v>
@@ -4815,12 +5517,12 @@
         <v>68</v>
       </c>
       <c r="J77" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A78">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>76</v>
       </c>
       <c r="B78" t="s">
@@ -4830,10 +5532,10 @@
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E78" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="F78" s="1">
         <v>41611</v>
@@ -4847,7 +5549,7 @@
     </row>
     <row r="79" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A79">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>77</v>
       </c>
       <c r="B79" t="s">
@@ -4857,10 +5559,10 @@
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="E79" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="F79" s="1">
         <v>41611</v>
@@ -4877,7 +5579,7 @@
     </row>
     <row r="80" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A80">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>78</v>
       </c>
       <c r="B80" t="s">
@@ -4887,10 +5589,10 @@
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E80" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="F80" s="1">
         <v>41611</v>
@@ -4905,12 +5607,12 @@
         <v>68</v>
       </c>
       <c r="J80" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>79</v>
       </c>
       <c r="B81" t="s">
@@ -4920,24 +5622,27 @@
         <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="E81" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="F81" s="1">
         <v>41611</v>
       </c>
       <c r="G81" s="1">
-        <v>41618</v>
+        <v>41628</v>
+      </c>
+      <c r="H81" s="1">
+        <v>41625</v>
       </c>
       <c r="I81" t="s">
-        <v>6</v>
+        <v>68</v>
       </c>
     </row>
     <row r="82" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A82">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
       <c r="B82" t="s">
@@ -4947,24 +5652,27 @@
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="E82" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="F82" s="1">
         <v>41611</v>
       </c>
       <c r="G82" s="1">
-        <v>41618</v>
+        <v>41625</v>
+      </c>
+      <c r="H82" s="1">
+        <v>41625</v>
       </c>
       <c r="I82" t="s">
-        <v>6</v>
+        <v>68</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A83">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>81</v>
       </c>
       <c r="B83" t="s">
@@ -4974,10 +5682,10 @@
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E83" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="F83" s="1">
         <v>41611</v>
@@ -4994,7 +5702,7 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>82</v>
       </c>
       <c r="B84" t="s">
@@ -5004,24 +5712,27 @@
         <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="E84" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="F84" s="1">
         <v>41611</v>
       </c>
       <c r="G84" s="1">
-        <v>41618</v>
+        <v>41625</v>
+      </c>
+      <c r="H84" s="1">
+        <v>41625</v>
       </c>
       <c r="I84" t="s">
-        <v>6</v>
+        <v>68</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>83</v>
       </c>
       <c r="B85" t="s">
@@ -5031,10 +5742,10 @@
         <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E85" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="F85" s="1">
         <v>41611</v>
@@ -5048,7 +5759,7 @@
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>84</v>
       </c>
       <c r="B86" t="s">
@@ -5058,10 +5769,10 @@
         <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="E86" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="F86" s="1">
         <v>41611</v>
@@ -5075,7 +5786,7 @@
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>85</v>
       </c>
       <c r="B87" t="s">
@@ -5085,24 +5796,27 @@
         <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="E87" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="F87" s="1">
         <v>41611</v>
       </c>
       <c r="G87" s="1">
-        <v>41618</v>
+        <v>41625</v>
+      </c>
+      <c r="H87" s="1">
+        <v>41625</v>
       </c>
       <c r="I87" t="s">
-        <v>6</v>
+        <v>68</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>86</v>
       </c>
       <c r="B88" t="s">
@@ -5112,24 +5826,27 @@
         <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="E88" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="F88" s="1">
         <v>41611</v>
       </c>
       <c r="G88" s="1">
-        <v>41618</v>
+        <v>41625</v>
+      </c>
+      <c r="H88" s="1">
+        <v>41625</v>
       </c>
       <c r="I88" t="s">
-        <v>6</v>
+        <v>68</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A89">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>87</v>
       </c>
       <c r="B89" t="s">
@@ -5139,24 +5856,27 @@
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="E89" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="F89" s="1">
         <v>41611</v>
       </c>
       <c r="G89" s="1">
-        <v>41618</v>
+        <v>41625</v>
+      </c>
+      <c r="H89" s="1">
+        <v>41625</v>
       </c>
       <c r="I89" t="s">
-        <v>6</v>
+        <v>68</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>88</v>
       </c>
       <c r="B90" t="s">
@@ -5166,10 +5886,10 @@
         <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E90" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="F90" s="1">
         <v>41611</v>
@@ -5183,7 +5903,7 @@
     </row>
     <row r="91" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A91">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>89</v>
       </c>
       <c r="B91" t="s">
@@ -5193,24 +5913,27 @@
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="E91" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="F91" s="1">
         <v>41611</v>
       </c>
       <c r="G91" s="1">
-        <v>41618</v>
+        <v>41625</v>
+      </c>
+      <c r="H91" s="1">
+        <v>41625</v>
       </c>
       <c r="I91" t="s">
-        <v>6</v>
+        <v>68</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="B92" t="s">
@@ -5220,10 +5943,10 @@
         <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="E92" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="F92" s="1">
         <v>41610</v>
@@ -5238,25 +5961,25 @@
         <v>68</v>
       </c>
       <c r="J92" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="93" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A93">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C93" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="E93" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="F93" s="1">
         <v>41610</v>
@@ -5270,7 +5993,7 @@
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>92</v>
       </c>
       <c r="B94" t="s">
@@ -5280,7 +6003,7 @@
         <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="E94" t="s">
         <v>71</v>
@@ -5297,7 +6020,7 @@
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>93</v>
       </c>
       <c r="B95" t="s">
@@ -5307,7 +6030,7 @@
         <v>33</v>
       </c>
       <c r="D95" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E95" t="s">
         <v>76</v>
@@ -5327,7 +6050,7 @@
     </row>
     <row r="96" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A96">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>94</v>
       </c>
       <c r="B96" t="s">
@@ -5337,7 +6060,7 @@
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E96" t="s">
         <v>76</v>
@@ -5357,7 +6080,7 @@
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>95</v>
       </c>
       <c r="B97" t="s">
@@ -5367,7 +6090,7 @@
         <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="E97" t="s">
         <v>76</v>
@@ -5387,7 +6110,7 @@
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>96</v>
       </c>
       <c r="B98" t="s">
@@ -5397,7 +6120,7 @@
         <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="E98" t="s">
         <v>76</v>
@@ -5417,7 +6140,7 @@
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>97</v>
       </c>
       <c r="B99" t="s">
@@ -5427,7 +6150,7 @@
         <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="E99" t="s">
         <v>76</v>
@@ -5447,7 +6170,7 @@
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>98</v>
       </c>
       <c r="B100" t="s">
@@ -5457,7 +6180,7 @@
         <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E100" t="s">
         <v>76</v>
@@ -5477,7 +6200,7 @@
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>99</v>
       </c>
       <c r="B101" t="s">
@@ -5487,7 +6210,7 @@
         <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E101" t="s">
         <v>84</v>
@@ -5504,7 +6227,7 @@
     </row>
     <row r="102" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A102">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="A102:A149" si="2">A101+1</f>
         <v>100</v>
       </c>
       <c r="B102" t="s">
@@ -5514,7 +6237,7 @@
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="E102" t="s">
         <v>84</v>
@@ -5535,13 +6258,13 @@
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C103" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="E103" t="s">
         <v>84</v>
@@ -5562,13 +6285,13 @@
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C104" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="E104" t="s">
         <v>86</v>
@@ -5595,7 +6318,7 @@
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E105" t="s">
         <v>83</v>
@@ -5622,7 +6345,7 @@
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E106" t="s">
         <v>83</v>
@@ -5633,8 +6356,11 @@
       <c r="G106" s="1">
         <v>41625</v>
       </c>
+      <c r="H106" s="1">
+        <v>41625</v>
+      </c>
       <c r="I106" t="s">
-        <v>6</v>
+        <v>68</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
@@ -5649,7 +6375,7 @@
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="E107" t="s">
         <v>83</v>
@@ -5676,7 +6402,7 @@
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="E108" t="s">
         <v>83</v>
@@ -5703,7 +6429,7 @@
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="E109" t="s">
         <v>83</v>
@@ -5730,7 +6456,7 @@
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="E110" t="s">
         <v>83</v>
@@ -5757,7 +6483,7 @@
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="E111" t="s">
         <v>83</v>
@@ -5768,8 +6494,11 @@
       <c r="G111" s="1">
         <v>41625</v>
       </c>
+      <c r="H111" s="1">
+        <v>41625</v>
+      </c>
       <c r="I111" t="s">
-        <v>6</v>
+        <v>68</v>
       </c>
     </row>
     <row r="112" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -5784,7 +6513,7 @@
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="E112" t="s">
         <v>83</v>
@@ -5799,7 +6528,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="113" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A113">
         <f t="shared" si="2"/>
         <v>111</v>
@@ -5811,7 +6540,7 @@
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="E113" t="s">
         <v>83</v>
@@ -5826,7 +6555,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="114" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A114">
         <f t="shared" si="2"/>
         <v>112</v>
@@ -5838,7 +6567,7 @@
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="E114" t="s">
         <v>83</v>
@@ -5853,7 +6582,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="115" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A115">
         <f t="shared" si="2"/>
         <v>113</v>
@@ -5865,7 +6594,7 @@
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="E115" t="s">
         <v>83</v>
@@ -5880,7 +6609,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116">
         <f t="shared" si="2"/>
         <v>114</v>
@@ -5892,7 +6621,7 @@
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="E116" t="s">
         <v>71</v>
@@ -5903,11 +6632,14 @@
       <c r="G116" s="1">
         <v>41625</v>
       </c>
+      <c r="H116" s="1">
+        <v>41625</v>
+      </c>
       <c r="I116" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A117">
         <f t="shared" si="2"/>
         <v>115</v>
@@ -5919,7 +6651,7 @@
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="E117" t="s">
         <v>71</v>
@@ -5930,11 +6662,14 @@
       <c r="G117" s="1">
         <v>41625</v>
       </c>
+      <c r="H117" s="1">
+        <v>41625</v>
+      </c>
       <c r="I117" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118">
         <f t="shared" si="2"/>
         <v>116</v>
@@ -5946,7 +6681,7 @@
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="E118" t="s">
         <v>76</v>
@@ -5961,7 +6696,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="119" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A119">
         <f t="shared" si="2"/>
         <v>117</v>
@@ -5973,7 +6708,7 @@
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E119" t="s">
         <v>76</v>
@@ -5988,7 +6723,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="120" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A120">
         <f t="shared" si="2"/>
         <v>118</v>
@@ -6000,7 +6735,7 @@
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="E120" t="s">
         <v>35</v>
@@ -6008,595 +6743,1878 @@
       <c r="F120" s="1">
         <v>41617</v>
       </c>
-      <c r="G120" t="s">
-        <v>204</v>
+      <c r="G120" s="1">
+        <v>41628</v>
       </c>
       <c r="I120" t="s">
         <v>6</v>
       </c>
     </row>
+    <row r="121" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <f t="shared" si="2"/>
+        <v>119</v>
+      </c>
+      <c r="B121" t="s">
+        <v>198</v>
+      </c>
+      <c r="C121" t="s">
+        <v>9</v>
+      </c>
+      <c r="D121" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="F121" s="1">
+        <v>41625</v>
+      </c>
+      <c r="G121" s="1">
+        <v>41628</v>
+      </c>
+      <c r="I121" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <f t="shared" si="2"/>
+        <v>120</v>
+      </c>
+      <c r="B122" t="s">
+        <v>198</v>
+      </c>
+      <c r="C122" t="s">
+        <v>9</v>
+      </c>
+      <c r="D122" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="E122" t="s">
+        <v>80</v>
+      </c>
+      <c r="F122" s="1">
+        <v>41625</v>
+      </c>
+      <c r="G122" s="1">
+        <v>41628</v>
+      </c>
+      <c r="I122" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <f t="shared" si="2"/>
+        <v>121</v>
+      </c>
+      <c r="B123" t="s">
+        <v>54</v>
+      </c>
+      <c r="C123" t="s">
+        <v>9</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E123" t="s">
+        <v>128</v>
+      </c>
+      <c r="F123" s="1">
+        <v>41625</v>
+      </c>
+      <c r="G123" s="1">
+        <v>41646</v>
+      </c>
+      <c r="I123" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <f t="shared" si="2"/>
+        <v>122</v>
+      </c>
+      <c r="B124" t="s">
+        <v>54</v>
+      </c>
+      <c r="C124" t="s">
+        <v>9</v>
+      </c>
+      <c r="D124" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="E124" t="s">
+        <v>128</v>
+      </c>
+      <c r="F124" s="1">
+        <v>41625</v>
+      </c>
+      <c r="G124" s="1">
+        <v>41646</v>
+      </c>
+      <c r="I124" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <f t="shared" si="2"/>
+        <v>123</v>
+      </c>
+      <c r="B125" t="s">
+        <v>54</v>
+      </c>
+      <c r="C125" t="s">
+        <v>9</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E125" t="s">
+        <v>128</v>
+      </c>
+      <c r="F125" s="1">
+        <v>41625</v>
+      </c>
+      <c r="G125" s="1">
+        <v>41646</v>
+      </c>
+      <c r="I125" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <f t="shared" si="2"/>
+        <v>124</v>
+      </c>
+      <c r="B126" t="s">
+        <v>97</v>
+      </c>
+      <c r="C126" t="s">
+        <v>9</v>
+      </c>
+      <c r="D126" t="s">
+        <v>206</v>
+      </c>
+      <c r="E126" t="s">
+        <v>205</v>
+      </c>
+      <c r="F126" s="1">
+        <v>41625</v>
+      </c>
+      <c r="G126" s="1">
+        <v>41646</v>
+      </c>
+      <c r="I126" t="s">
+        <v>6</v>
+      </c>
+      <c r="J126" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <f t="shared" si="2"/>
+        <v>125</v>
+      </c>
+      <c r="B127" t="s">
+        <v>97</v>
+      </c>
+      <c r="C127" t="s">
+        <v>9</v>
+      </c>
+      <c r="D127" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="E127" t="s">
+        <v>205</v>
+      </c>
+      <c r="F127" s="1">
+        <v>41625</v>
+      </c>
+      <c r="G127" s="1">
+        <v>41646</v>
+      </c>
+      <c r="I127" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <f t="shared" si="2"/>
+        <v>126</v>
+      </c>
+      <c r="B128" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C128" t="s">
+        <v>9</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F128" s="1">
+        <v>41625</v>
+      </c>
+      <c r="G128" s="1">
+        <v>41294</v>
+      </c>
+      <c r="I128" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <f t="shared" si="2"/>
+        <v>127</v>
+      </c>
+      <c r="B129" t="s">
+        <v>56</v>
+      </c>
+      <c r="C129" t="s">
+        <v>9</v>
+      </c>
+      <c r="D129" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F129" s="1">
+        <v>41625</v>
+      </c>
+      <c r="G129" s="1">
+        <v>41294</v>
+      </c>
+      <c r="I129" t="s">
+        <v>6</v>
+      </c>
+      <c r="J129" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" ht="195" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <f t="shared" si="2"/>
+        <v>128</v>
+      </c>
+      <c r="B130" t="s">
+        <v>56</v>
+      </c>
+      <c r="C130" t="s">
+        <v>9</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E130" t="s">
+        <v>212</v>
+      </c>
+      <c r="F130" s="1">
+        <v>41625</v>
+      </c>
+      <c r="G130" s="1">
+        <v>41294</v>
+      </c>
+      <c r="I130" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <f t="shared" si="2"/>
+        <v>129</v>
+      </c>
+      <c r="B131" t="s">
+        <v>136</v>
+      </c>
+      <c r="C131" t="s">
+        <v>9</v>
+      </c>
+      <c r="D131" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="E131" t="s">
+        <v>129</v>
+      </c>
+      <c r="F131" s="1">
+        <v>41625</v>
+      </c>
+      <c r="G131" s="1">
+        <v>41646</v>
+      </c>
+      <c r="I131" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <f t="shared" si="2"/>
+        <v>130</v>
+      </c>
+      <c r="B132" t="s">
+        <v>49</v>
+      </c>
+      <c r="C132" t="s">
+        <v>9</v>
+      </c>
+      <c r="D132" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="E132" t="s">
+        <v>217</v>
+      </c>
+      <c r="F132" s="1">
+        <v>41625</v>
+      </c>
+      <c r="G132" s="1">
+        <v>41628</v>
+      </c>
+      <c r="I132" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <f t="shared" si="2"/>
+        <v>131</v>
+      </c>
+      <c r="B133" t="s">
+        <v>49</v>
+      </c>
+      <c r="C133" t="s">
+        <v>9</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E133" s="22" t="s">
+        <v>217</v>
+      </c>
+      <c r="F133" s="1">
+        <v>41625</v>
+      </c>
+      <c r="G133" s="1">
+        <v>41646</v>
+      </c>
+      <c r="I133" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <f t="shared" si="2"/>
+        <v>132</v>
+      </c>
+      <c r="B134" t="s">
+        <v>49</v>
+      </c>
+      <c r="C134" t="s">
+        <v>9</v>
+      </c>
+      <c r="D134" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="E134" t="s">
+        <v>217</v>
+      </c>
+      <c r="F134" s="1">
+        <v>41625</v>
+      </c>
+      <c r="G134" s="1">
+        <v>41628</v>
+      </c>
+      <c r="I134" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <f t="shared" si="2"/>
+        <v>133</v>
+      </c>
+      <c r="B135" t="s">
+        <v>49</v>
+      </c>
+      <c r="C135" t="s">
+        <v>9</v>
+      </c>
+      <c r="D135" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="E135" t="s">
+        <v>217</v>
+      </c>
+      <c r="F135" s="1">
+        <v>41625</v>
+      </c>
+      <c r="G135" s="1">
+        <v>41628</v>
+      </c>
+      <c r="I135" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <f t="shared" si="2"/>
+        <v>134</v>
+      </c>
+      <c r="B136" t="s">
+        <v>49</v>
+      </c>
+      <c r="C136" t="s">
+        <v>9</v>
+      </c>
+      <c r="D136" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="E136" t="s">
+        <v>217</v>
+      </c>
+      <c r="F136" s="1">
+        <v>41625</v>
+      </c>
+      <c r="G136" s="1">
+        <v>41628</v>
+      </c>
+      <c r="I136" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <f t="shared" si="2"/>
+        <v>135</v>
+      </c>
+      <c r="B137" t="s">
+        <v>56</v>
+      </c>
+      <c r="C137" t="s">
+        <v>9</v>
+      </c>
+      <c r="D137" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="E137" t="s">
+        <v>205</v>
+      </c>
+      <c r="F137" s="1">
+        <v>41625</v>
+      </c>
+      <c r="G137" s="1">
+        <v>41628</v>
+      </c>
+      <c r="I137" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <f t="shared" si="2"/>
+        <v>136</v>
+      </c>
+      <c r="B138" t="s">
+        <v>49</v>
+      </c>
+      <c r="C138" t="s">
+        <v>9</v>
+      </c>
+      <c r="D138" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="E138" t="s">
+        <v>217</v>
+      </c>
+      <c r="F138" s="1">
+        <v>41625</v>
+      </c>
+      <c r="G138" s="1">
+        <v>41628</v>
+      </c>
+      <c r="I138" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <f t="shared" si="2"/>
+        <v>137</v>
+      </c>
+      <c r="B139" t="s">
+        <v>49</v>
+      </c>
+      <c r="C139" t="s">
+        <v>9</v>
+      </c>
+      <c r="D139" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="E139" t="s">
+        <v>217</v>
+      </c>
+      <c r="F139" s="1">
+        <v>41625</v>
+      </c>
+      <c r="G139" s="1">
+        <v>41628</v>
+      </c>
+      <c r="I139" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <f t="shared" si="2"/>
+        <v>138</v>
+      </c>
+      <c r="B140" t="s">
+        <v>49</v>
+      </c>
+      <c r="C140" t="s">
+        <v>9</v>
+      </c>
+      <c r="D140" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="E140" t="s">
+        <v>217</v>
+      </c>
+      <c r="F140" s="1">
+        <v>41625</v>
+      </c>
+      <c r="G140" s="1">
+        <v>41628</v>
+      </c>
+      <c r="I140" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <f t="shared" si="2"/>
+        <v>139</v>
+      </c>
+      <c r="B141" t="s">
+        <v>49</v>
+      </c>
+      <c r="C141" t="s">
+        <v>9</v>
+      </c>
+      <c r="D141" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="E141" t="s">
+        <v>217</v>
+      </c>
+      <c r="F141" s="1">
+        <v>41625</v>
+      </c>
+      <c r="G141" s="1">
+        <v>41628</v>
+      </c>
+      <c r="I141" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <f t="shared" si="2"/>
+        <v>140</v>
+      </c>
+      <c r="B142" t="s">
+        <v>49</v>
+      </c>
+      <c r="C142" t="s">
+        <v>9</v>
+      </c>
+      <c r="D142" s="21" t="s">
+        <v>225</v>
+      </c>
+      <c r="E142" t="s">
+        <v>217</v>
+      </c>
+      <c r="F142" s="1">
+        <v>41625</v>
+      </c>
+      <c r="G142" s="1">
+        <v>41628</v>
+      </c>
+      <c r="I142" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <f t="shared" si="2"/>
+        <v>141</v>
+      </c>
+      <c r="B143" t="s">
+        <v>49</v>
+      </c>
+      <c r="C143" t="s">
+        <v>9</v>
+      </c>
+      <c r="D143" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="E143" t="s">
+        <v>217</v>
+      </c>
+      <c r="F143" s="1">
+        <v>41625</v>
+      </c>
+      <c r="G143" s="1">
+        <v>41628</v>
+      </c>
+      <c r="I143" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <f t="shared" si="2"/>
+        <v>142</v>
+      </c>
+      <c r="B144" t="s">
+        <v>49</v>
+      </c>
+      <c r="C144" t="s">
+        <v>9</v>
+      </c>
+      <c r="D144" s="21" t="s">
+        <v>227</v>
+      </c>
+      <c r="E144" t="s">
+        <v>217</v>
+      </c>
+      <c r="F144" s="1">
+        <v>41625</v>
+      </c>
+      <c r="G144" s="1">
+        <v>41628</v>
+      </c>
+      <c r="I144" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <f t="shared" si="2"/>
+        <v>143</v>
+      </c>
+      <c r="B145" t="s">
+        <v>49</v>
+      </c>
+      <c r="C145" t="s">
+        <v>9</v>
+      </c>
+      <c r="D145" s="21" t="s">
+        <v>228</v>
+      </c>
+      <c r="E145" t="s">
+        <v>217</v>
+      </c>
+      <c r="F145" s="1">
+        <v>41625</v>
+      </c>
+      <c r="G145" s="1">
+        <v>41628</v>
+      </c>
+      <c r="I145" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <f t="shared" si="2"/>
+        <v>144</v>
+      </c>
+      <c r="B146" t="s">
+        <v>49</v>
+      </c>
+      <c r="C146" t="s">
+        <v>9</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E146" t="s">
+        <v>217</v>
+      </c>
+      <c r="F146" s="1">
+        <v>41625</v>
+      </c>
+      <c r="G146" s="1">
+        <v>41628</v>
+      </c>
+      <c r="I146" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <f t="shared" si="2"/>
+        <v>145</v>
+      </c>
+      <c r="B147" t="s">
+        <v>49</v>
+      </c>
+      <c r="C147" t="s">
+        <v>9</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="E147" t="s">
+        <v>217</v>
+      </c>
+      <c r="F147" s="1">
+        <v>41625</v>
+      </c>
+      <c r="G147" s="1">
+        <v>41628</v>
+      </c>
+      <c r="I147" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <f t="shared" si="2"/>
+        <v>146</v>
+      </c>
+      <c r="B148" t="s">
+        <v>35</v>
+      </c>
+      <c r="C148" t="s">
+        <v>9</v>
+      </c>
+      <c r="D148" s="20" t="s">
+        <v>231</v>
+      </c>
+      <c r="E148" t="s">
+        <v>35</v>
+      </c>
+      <c r="F148" s="1">
+        <v>41625</v>
+      </c>
+      <c r="G148" s="1">
+        <v>41628</v>
+      </c>
+      <c r="I148" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <f t="shared" si="2"/>
+        <v>147</v>
+      </c>
+      <c r="B149" t="s">
+        <v>233</v>
+      </c>
+      <c r="C149" t="s">
+        <v>9</v>
+      </c>
+      <c r="D149" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="E149" t="s">
+        <v>76</v>
+      </c>
+      <c r="F149" s="1">
+        <v>41625</v>
+      </c>
+      <c r="G149" s="1">
+        <v>41628</v>
+      </c>
+      <c r="I149" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="B150" t="s">
+        <v>198</v>
+      </c>
+      <c r="C150" t="s">
+        <v>9</v>
+      </c>
+      <c r="D150" s="21" t="s">
+        <v>243</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="F150" s="1">
+        <v>41625</v>
+      </c>
+      <c r="G150" s="1">
+        <v>41628</v>
+      </c>
+      <c r="I150" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <f>A149+1</f>
+        <v>148</v>
+      </c>
+      <c r="B151" t="s">
+        <v>245</v>
+      </c>
+      <c r="C151" t="s">
+        <v>9</v>
+      </c>
+      <c r="D151" t="s">
+        <v>246</v>
+      </c>
+      <c r="E151" t="s">
+        <v>113</v>
+      </c>
+      <c r="F151" s="1">
+        <v>41625</v>
+      </c>
+      <c r="G151" s="1">
+        <v>41637</v>
+      </c>
+      <c r="I151" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F152" s="1"/>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F153" s="1"/>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F154" s="1"/>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F155" s="1"/>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F156" s="1"/>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F157" s="1"/>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F158" s="1"/>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F159" s="1"/>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F160" s="1"/>
+    </row>
+    <row r="161" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F161" s="1"/>
+    </row>
+    <row r="162" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F162" s="1"/>
+    </row>
+    <row r="163" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F163" s="1"/>
+    </row>
+    <row r="164" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F164" s="1"/>
+    </row>
+    <row r="165" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F165" s="1"/>
+    </row>
+    <row r="166" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F166" s="1"/>
+    </row>
+    <row r="167" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F167" s="1"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:J120"/>
-  <conditionalFormatting sqref="C1:C44 E14 E9 E24 E27 E32 E39 E42 E3:E7 C46:C50 C60:C61 C65:C1048576 E120 G120">
-    <cfRule type="cellIs" dxfId="194" priority="163" operator="equal">
-      <formula>"Faible"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="193" priority="164" operator="equal">
-      <formula>"Moyenne"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="192" priority="165" operator="equal">
+  <autoFilter ref="A1:J151"/>
+  <conditionalFormatting sqref="C1:C44 E14 E9 E24 E27 E32 E39 E42 E3:E7 C46:C50 C60:C61 G120 E120:E123 C65:C1048576">
+    <cfRule type="cellIs" dxfId="266" priority="274" operator="equal">
+      <formula>"Faible"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="265" priority="275" operator="equal">
+      <formula>"Moyenne"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="264" priority="276" operator="equal">
       <formula>"Haute"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15:E17">
-    <cfRule type="cellIs" dxfId="191" priority="160" operator="equal">
-      <formula>"Faible"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="190" priority="161" operator="equal">
-      <formula>"Moyenne"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="189" priority="162" operator="equal">
+    <cfRule type="cellIs" dxfId="263" priority="271" operator="equal">
+      <formula>"Faible"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="262" priority="272" operator="equal">
+      <formula>"Moyenne"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="261" priority="273" operator="equal">
       <formula>"Haute"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19">
-    <cfRule type="cellIs" dxfId="188" priority="154" operator="equal">
-      <formula>"Faible"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="187" priority="155" operator="equal">
-      <formula>"Moyenne"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="186" priority="156" operator="equal">
+    <cfRule type="cellIs" dxfId="260" priority="265" operator="equal">
+      <formula>"Faible"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="259" priority="266" operator="equal">
+      <formula>"Moyenne"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="258" priority="267" operator="equal">
       <formula>"Haute"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20">
-    <cfRule type="cellIs" dxfId="185" priority="151" operator="equal">
-      <formula>"Faible"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="184" priority="152" operator="equal">
-      <formula>"Moyenne"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="183" priority="153" operator="equal">
+    <cfRule type="cellIs" dxfId="257" priority="262" operator="equal">
+      <formula>"Faible"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="256" priority="263" operator="equal">
+      <formula>"Moyenne"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="255" priority="264" operator="equal">
       <formula>"Haute"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="cellIs" dxfId="182" priority="148" operator="equal">
-      <formula>"Faible"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="181" priority="149" operator="equal">
-      <formula>"Moyenne"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="180" priority="150" operator="equal">
+    <cfRule type="cellIs" dxfId="254" priority="259" operator="equal">
+      <formula>"Faible"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="253" priority="260" operator="equal">
+      <formula>"Moyenne"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="252" priority="261" operator="equal">
       <formula>"Haute"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="cellIs" dxfId="179" priority="145" operator="equal">
-      <formula>"Faible"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="178" priority="146" operator="equal">
-      <formula>"Moyenne"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="177" priority="147" operator="equal">
+    <cfRule type="cellIs" dxfId="251" priority="256" operator="equal">
+      <formula>"Faible"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="250" priority="257" operator="equal">
+      <formula>"Moyenne"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="249" priority="258" operator="equal">
       <formula>"Haute"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="176" priority="142" operator="equal">
-      <formula>"Faible"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="175" priority="143" operator="equal">
-      <formula>"Moyenne"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="174" priority="144" operator="equal">
+    <cfRule type="cellIs" dxfId="248" priority="253" operator="equal">
+      <formula>"Faible"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="247" priority="254" operator="equal">
+      <formula>"Moyenne"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="246" priority="255" operator="equal">
       <formula>"Haute"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25">
-    <cfRule type="cellIs" dxfId="173" priority="139" operator="equal">
-      <formula>"Faible"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="172" priority="140" operator="equal">
-      <formula>"Moyenne"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="171" priority="141" operator="equal">
+    <cfRule type="cellIs" dxfId="245" priority="250" operator="equal">
+      <formula>"Faible"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="244" priority="251" operator="equal">
+      <formula>"Moyenne"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="243" priority="252" operator="equal">
       <formula>"Haute"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33">
-    <cfRule type="cellIs" dxfId="170" priority="136" operator="equal">
-      <formula>"Faible"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="169" priority="137" operator="equal">
-      <formula>"Moyenne"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="168" priority="138" operator="equal">
+    <cfRule type="cellIs" dxfId="242" priority="247" operator="equal">
+      <formula>"Faible"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="241" priority="248" operator="equal">
+      <formula>"Moyenne"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="240" priority="249" operator="equal">
       <formula>"Haute"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="167" priority="133" operator="equal">
-      <formula>"Faible"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="166" priority="134" operator="equal">
-      <formula>"Moyenne"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="165" priority="135" operator="equal">
+    <cfRule type="cellIs" dxfId="239" priority="244" operator="equal">
+      <formula>"Faible"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="238" priority="245" operator="equal">
+      <formula>"Moyenne"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="237" priority="246" operator="equal">
       <formula>"Haute"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E35">
-    <cfRule type="cellIs" dxfId="164" priority="130" operator="equal">
-      <formula>"Faible"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="163" priority="131" operator="equal">
-      <formula>"Moyenne"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="132" operator="equal">
+    <cfRule type="cellIs" dxfId="236" priority="241" operator="equal">
+      <formula>"Faible"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="235" priority="242" operator="equal">
+      <formula>"Moyenne"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="234" priority="243" operator="equal">
       <formula>"Haute"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E36">
-    <cfRule type="cellIs" dxfId="161" priority="127" operator="equal">
-      <formula>"Faible"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="160" priority="128" operator="equal">
-      <formula>"Moyenne"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="159" priority="129" operator="equal">
+    <cfRule type="cellIs" dxfId="233" priority="238" operator="equal">
+      <formula>"Faible"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="232" priority="239" operator="equal">
+      <formula>"Moyenne"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="231" priority="240" operator="equal">
       <formula>"Haute"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37">
-    <cfRule type="cellIs" dxfId="158" priority="124" operator="equal">
-      <formula>"Faible"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="125" operator="equal">
-      <formula>"Moyenne"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="126" operator="equal">
+    <cfRule type="cellIs" dxfId="230" priority="235" operator="equal">
+      <formula>"Faible"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="229" priority="236" operator="equal">
+      <formula>"Moyenne"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="228" priority="237" operator="equal">
       <formula>"Haute"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E43:E44">
-    <cfRule type="cellIs" dxfId="155" priority="121" operator="equal">
-      <formula>"Faible"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="122" operator="equal">
-      <formula>"Moyenne"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="153" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="227" priority="232" operator="equal">
+      <formula>"Faible"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="226" priority="233" operator="equal">
+      <formula>"Moyenne"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="225" priority="234" operator="equal">
       <formula>"Haute"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C45 E45">
-    <cfRule type="cellIs" dxfId="152" priority="118" operator="equal">
-      <formula>"Faible"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="151" priority="119" operator="equal">
-      <formula>"Moyenne"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="120" operator="equal">
+    <cfRule type="cellIs" dxfId="224" priority="229" operator="equal">
+      <formula>"Faible"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="223" priority="230" operator="equal">
+      <formula>"Moyenne"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="222" priority="231" operator="equal">
       <formula>"Haute"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D46:E46">
-    <cfRule type="cellIs" dxfId="149" priority="115" operator="equal">
-      <formula>"Faible"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="116" operator="equal">
-      <formula>"Moyenne"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="147" priority="117" operator="equal">
+    <cfRule type="cellIs" dxfId="221" priority="226" operator="equal">
+      <formula>"Faible"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="220" priority="227" operator="equal">
+      <formula>"Moyenne"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="219" priority="228" operator="equal">
       <formula>"Haute"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E48">
-    <cfRule type="cellIs" dxfId="146" priority="112" operator="equal">
-      <formula>"Faible"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="113" operator="equal">
-      <formula>"Moyenne"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="114" operator="equal">
+    <cfRule type="cellIs" dxfId="218" priority="223" operator="equal">
+      <formula>"Faible"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="217" priority="224" operator="equal">
+      <formula>"Moyenne"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="216" priority="225" operator="equal">
       <formula>"Haute"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E50">
-    <cfRule type="cellIs" dxfId="143" priority="109" operator="equal">
-      <formula>"Faible"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="110" operator="equal">
-      <formula>"Moyenne"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="215" priority="220" operator="equal">
+      <formula>"Faible"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="214" priority="221" operator="equal">
+      <formula>"Moyenne"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="213" priority="222" operator="equal">
       <formula>"Haute"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C51">
-    <cfRule type="cellIs" dxfId="140" priority="106" operator="equal">
-      <formula>"Faible"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="139" priority="107" operator="equal">
-      <formula>"Moyenne"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="212" priority="217" operator="equal">
+      <formula>"Faible"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="211" priority="218" operator="equal">
+      <formula>"Moyenne"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="210" priority="219" operator="equal">
       <formula>"Haute"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51">
-    <cfRule type="cellIs" dxfId="137" priority="103" operator="equal">
-      <formula>"Faible"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="104" operator="equal">
-      <formula>"Moyenne"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="135" priority="105" operator="equal">
+    <cfRule type="cellIs" dxfId="209" priority="214" operator="equal">
+      <formula>"Faible"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="208" priority="215" operator="equal">
+      <formula>"Moyenne"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="207" priority="216" operator="equal">
       <formula>"Haute"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C52">
-    <cfRule type="cellIs" dxfId="134" priority="100" operator="equal">
-      <formula>"Faible"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="101" operator="equal">
-      <formula>"Moyenne"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="206" priority="211" operator="equal">
+      <formula>"Faible"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="205" priority="212" operator="equal">
+      <formula>"Moyenne"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="204" priority="213" operator="equal">
       <formula>"Haute"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E52">
-    <cfRule type="cellIs" dxfId="131" priority="97" operator="equal">
-      <formula>"Faible"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="98" operator="equal">
-      <formula>"Moyenne"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="203" priority="208" operator="equal">
+      <formula>"Faible"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="202" priority="209" operator="equal">
+      <formula>"Moyenne"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="201" priority="210" operator="equal">
       <formula>"Haute"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C53">
-    <cfRule type="cellIs" dxfId="128" priority="94" operator="equal">
-      <formula>"Faible"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="127" priority="95" operator="equal">
-      <formula>"Moyenne"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="200" priority="205" operator="equal">
+      <formula>"Faible"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="199" priority="206" operator="equal">
+      <formula>"Moyenne"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="198" priority="207" operator="equal">
       <formula>"Haute"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="125" priority="91" operator="equal">
-      <formula>"Faible"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="92" operator="equal">
-      <formula>"Moyenne"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="123" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="197" priority="202" operator="equal">
+      <formula>"Faible"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="196" priority="203" operator="equal">
+      <formula>"Moyenne"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="195" priority="204" operator="equal">
       <formula>"Haute"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C54">
-    <cfRule type="cellIs" dxfId="122" priority="88" operator="equal">
-      <formula>"Faible"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="89" operator="equal">
-      <formula>"Moyenne"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="194" priority="199" operator="equal">
+      <formula>"Faible"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="193" priority="200" operator="equal">
+      <formula>"Moyenne"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="192" priority="201" operator="equal">
       <formula>"Haute"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E54">
-    <cfRule type="cellIs" dxfId="119" priority="85" operator="equal">
-      <formula>"Faible"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="86" operator="equal">
-      <formula>"Moyenne"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="191" priority="196" operator="equal">
+      <formula>"Faible"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="190" priority="197" operator="equal">
+      <formula>"Moyenne"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="189" priority="198" operator="equal">
       <formula>"Haute"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C55">
-    <cfRule type="cellIs" dxfId="116" priority="82" operator="equal">
-      <formula>"Faible"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="115" priority="83" operator="equal">
-      <formula>"Moyenne"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="193" operator="equal">
+      <formula>"Faible"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="187" priority="194" operator="equal">
+      <formula>"Moyenne"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="186" priority="195" operator="equal">
       <formula>"Haute"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E55">
-    <cfRule type="cellIs" dxfId="113" priority="79" operator="equal">
-      <formula>"Faible"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="80" operator="equal">
-      <formula>"Moyenne"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="111" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="190" operator="equal">
+      <formula>"Faible"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="184" priority="191" operator="equal">
+      <formula>"Moyenne"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="183" priority="192" operator="equal">
       <formula>"Haute"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C56">
-    <cfRule type="cellIs" dxfId="110" priority="76" operator="equal">
-      <formula>"Faible"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="77" operator="equal">
-      <formula>"Moyenne"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="187" operator="equal">
+      <formula>"Faible"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="181" priority="188" operator="equal">
+      <formula>"Moyenne"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="180" priority="189" operator="equal">
       <formula>"Haute"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E56">
-    <cfRule type="cellIs" dxfId="107" priority="73" operator="equal">
-      <formula>"Faible"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="74" operator="equal">
-      <formula>"Moyenne"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="179" priority="184" operator="equal">
+      <formula>"Faible"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="178" priority="185" operator="equal">
+      <formula>"Moyenne"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="177" priority="186" operator="equal">
       <formula>"Haute"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C57">
-    <cfRule type="cellIs" dxfId="104" priority="70" operator="equal">
-      <formula>"Faible"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="103" priority="71" operator="equal">
-      <formula>"Moyenne"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="181" operator="equal">
+      <formula>"Faible"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="175" priority="182" operator="equal">
+      <formula>"Moyenne"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="174" priority="183" operator="equal">
       <formula>"Haute"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C58">
-    <cfRule type="cellIs" dxfId="101" priority="67" operator="equal">
-      <formula>"Faible"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="68" operator="equal">
-      <formula>"Moyenne"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="99" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="178" operator="equal">
+      <formula>"Faible"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="172" priority="179" operator="equal">
+      <formula>"Moyenne"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="171" priority="180" operator="equal">
       <formula>"Haute"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C59">
-    <cfRule type="cellIs" dxfId="98" priority="64" operator="equal">
-      <formula>"Faible"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="65" operator="equal">
-      <formula>"Moyenne"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="175" operator="equal">
+      <formula>"Faible"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="169" priority="176" operator="equal">
+      <formula>"Moyenne"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="168" priority="177" operator="equal">
       <formula>"Haute"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E57">
-    <cfRule type="cellIs" dxfId="95" priority="61" operator="equal">
-      <formula>"Faible"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="62" operator="equal">
-      <formula>"Moyenne"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="172" operator="equal">
+      <formula>"Faible"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="166" priority="173" operator="equal">
+      <formula>"Moyenne"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="165" priority="174" operator="equal">
       <formula>"Haute"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E58">
-    <cfRule type="cellIs" dxfId="92" priority="58" operator="equal">
-      <formula>"Faible"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="59" operator="equal">
-      <formula>"Moyenne"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="169" operator="equal">
+      <formula>"Faible"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="163" priority="170" operator="equal">
+      <formula>"Moyenne"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="162" priority="171" operator="equal">
       <formula>"Haute"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E66">
-    <cfRule type="cellIs" dxfId="89" priority="22" operator="equal">
-      <formula>"Faible"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="23" operator="equal">
-      <formula>"Moyenne"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="133" operator="equal">
+      <formula>"Faible"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="160" priority="134" operator="equal">
+      <formula>"Moyenne"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="159" priority="135" operator="equal">
       <formula>"Haute"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E59">
-    <cfRule type="cellIs" dxfId="86" priority="52" operator="equal">
-      <formula>"Faible"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="53" operator="equal">
-      <formula>"Moyenne"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="163" operator="equal">
+      <formula>"Faible"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="157" priority="164" operator="equal">
+      <formula>"Moyenne"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="156" priority="165" operator="equal">
       <formula>"Haute"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E60">
-    <cfRule type="cellIs" dxfId="83" priority="49" operator="equal">
-      <formula>"Faible"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="50" operator="equal">
-      <formula>"Moyenne"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="160" operator="equal">
+      <formula>"Faible"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="154" priority="161" operator="equal">
+      <formula>"Moyenne"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="153" priority="162" operator="equal">
       <formula>"Haute"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E61">
-    <cfRule type="cellIs" dxfId="80" priority="46" operator="equal">
-      <formula>"Faible"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="47" operator="equal">
-      <formula>"Moyenne"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="157" operator="equal">
+      <formula>"Faible"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="151" priority="158" operator="equal">
+      <formula>"Moyenne"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="150" priority="159" operator="equal">
       <formula>"Haute"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C62">
-    <cfRule type="cellIs" dxfId="77" priority="43" operator="equal">
-      <formula>"Faible"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="44" operator="equal">
-      <formula>"Moyenne"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="154" operator="equal">
+      <formula>"Faible"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="148" priority="155" operator="equal">
+      <formula>"Moyenne"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="147" priority="156" operator="equal">
       <formula>"Haute"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E62">
-    <cfRule type="cellIs" dxfId="74" priority="40" operator="equal">
-      <formula>"Faible"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="41" operator="equal">
-      <formula>"Moyenne"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="151" operator="equal">
+      <formula>"Faible"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="145" priority="152" operator="equal">
+      <formula>"Moyenne"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="144" priority="153" operator="equal">
       <formula>"Haute"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E63">
-    <cfRule type="cellIs" dxfId="71" priority="37" operator="equal">
-      <formula>"Faible"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="38" operator="equal">
-      <formula>"Moyenne"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="148" operator="equal">
+      <formula>"Faible"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="142" priority="149" operator="equal">
+      <formula>"Moyenne"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="141" priority="150" operator="equal">
       <formula>"Haute"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C63">
-    <cfRule type="cellIs" dxfId="68" priority="34" operator="equal">
-      <formula>"Faible"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="35" operator="equal">
-      <formula>"Moyenne"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="145" operator="equal">
+      <formula>"Faible"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="139" priority="146" operator="equal">
+      <formula>"Moyenne"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="138" priority="147" operator="equal">
       <formula>"Haute"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C64">
-    <cfRule type="cellIs" dxfId="65" priority="31" operator="equal">
-      <formula>"Faible"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="32" operator="equal">
-      <formula>"Moyenne"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="142" operator="equal">
+      <formula>"Faible"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="136" priority="143" operator="equal">
+      <formula>"Moyenne"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="135" priority="144" operator="equal">
       <formula>"Haute"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E64">
-    <cfRule type="cellIs" dxfId="62" priority="28" operator="equal">
-      <formula>"Faible"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="29" operator="equal">
-      <formula>"Moyenne"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="139" operator="equal">
+      <formula>"Faible"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="133" priority="140" operator="equal">
+      <formula>"Moyenne"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="132" priority="141" operator="equal">
       <formula>"Haute"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E65">
-    <cfRule type="cellIs" dxfId="59" priority="25" operator="equal">
-      <formula>"Faible"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="26" operator="equal">
-      <formula>"Moyenne"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="136" operator="equal">
+      <formula>"Faible"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="130" priority="137" operator="equal">
+      <formula>"Moyenne"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="129" priority="138" operator="equal">
       <formula>"Haute"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E101">
-    <cfRule type="cellIs" dxfId="56" priority="19" operator="equal">
-      <formula>"Faible"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="20" operator="equal">
-      <formula>"Moyenne"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="130" operator="equal">
+      <formula>"Faible"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="127" priority="131" operator="equal">
+      <formula>"Moyenne"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="126" priority="132" operator="equal">
       <formula>"Haute"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E102">
-    <cfRule type="cellIs" dxfId="53" priority="16" operator="equal">
-      <formula>"Faible"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="17" operator="equal">
-      <formula>"Moyenne"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="127" operator="equal">
+      <formula>"Faible"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="124" priority="128" operator="equal">
+      <formula>"Moyenne"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="123" priority="129" operator="equal">
       <formula>"Haute"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E103">
-    <cfRule type="cellIs" dxfId="50" priority="13" operator="equal">
-      <formula>"Faible"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="14" operator="equal">
-      <formula>"Moyenne"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="124" operator="equal">
+      <formula>"Faible"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="121" priority="125" operator="equal">
+      <formula>"Moyenne"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="120" priority="126" operator="equal">
       <formula>"Haute"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E104">
-    <cfRule type="cellIs" dxfId="47" priority="10" operator="equal">
-      <formula>"Faible"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="11" operator="equal">
-      <formula>"Moyenne"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="121" operator="equal">
+      <formula>"Faible"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="118" priority="122" operator="equal">
+      <formula>"Moyenne"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="117" priority="123" operator="equal">
       <formula>"Haute"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E105">
-    <cfRule type="cellIs" dxfId="44" priority="7" operator="equal">
-      <formula>"Faible"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="8" operator="equal">
-      <formula>"Moyenne"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="118" operator="equal">
+      <formula>"Faible"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="115" priority="119" operator="equal">
+      <formula>"Moyenne"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="114" priority="120" operator="equal">
       <formula>"Haute"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E109">
-    <cfRule type="cellIs" dxfId="38" priority="4" operator="equal">
-      <formula>"Faible"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="5" operator="equal">
-      <formula>"Moyenne"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="115" operator="equal">
+      <formula>"Faible"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="112" priority="116" operator="equal">
+      <formula>"Moyenne"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="111" priority="117" operator="equal">
       <formula>"Haute"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E111">
-    <cfRule type="cellIs" dxfId="32" priority="1" operator="equal">
-      <formula>"Faible"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="2" operator="equal">
-      <formula>"Moyenne"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="112" operator="equal">
+      <formula>"Faible"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="109" priority="113" operator="equal">
+      <formula>"Moyenne"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="108" priority="114" operator="equal">
+      <formula>"Haute"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G121">
+    <cfRule type="cellIs" dxfId="107" priority="109" operator="equal">
+      <formula>"Faible"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="106" priority="110" operator="equal">
+      <formula>"Moyenne"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="105" priority="111" operator="equal">
+      <formula>"Haute"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G122">
+    <cfRule type="cellIs" dxfId="104" priority="106" operator="equal">
+      <formula>"Faible"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="103" priority="107" operator="equal">
+      <formula>"Moyenne"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="102" priority="108" operator="equal">
+      <formula>"Haute"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G123">
+    <cfRule type="cellIs" dxfId="101" priority="103" operator="equal">
+      <formula>"Faible"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="100" priority="104" operator="equal">
+      <formula>"Moyenne"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="99" priority="105" operator="equal">
+      <formula>"Haute"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E124">
+    <cfRule type="cellIs" dxfId="98" priority="100" operator="equal">
+      <formula>"Faible"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="97" priority="101" operator="equal">
+      <formula>"Moyenne"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="96" priority="102" operator="equal">
+      <formula>"Haute"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E125">
+    <cfRule type="cellIs" dxfId="95" priority="97" operator="equal">
+      <formula>"Faible"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="94" priority="98" operator="equal">
+      <formula>"Moyenne"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="93" priority="99" operator="equal">
+      <formula>"Haute"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E126">
+    <cfRule type="cellIs" dxfId="92" priority="94" operator="equal">
+      <formula>"Faible"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="91" priority="95" operator="equal">
+      <formula>"Moyenne"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="90" priority="96" operator="equal">
+      <formula>"Haute"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G124">
+    <cfRule type="cellIs" dxfId="89" priority="91" operator="equal">
+      <formula>"Faible"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="88" priority="92" operator="equal">
+      <formula>"Moyenne"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="87" priority="93" operator="equal">
+      <formula>"Haute"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G125">
+    <cfRule type="cellIs" dxfId="86" priority="88" operator="equal">
+      <formula>"Faible"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="85" priority="89" operator="equal">
+      <formula>"Moyenne"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="84" priority="90" operator="equal">
+      <formula>"Haute"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G126">
+    <cfRule type="cellIs" dxfId="83" priority="85" operator="equal">
+      <formula>"Faible"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="82" priority="86" operator="equal">
+      <formula>"Moyenne"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="81" priority="87" operator="equal">
+      <formula>"Haute"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G127">
+    <cfRule type="cellIs" dxfId="80" priority="82" operator="equal">
+      <formula>"Faible"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="79" priority="83" operator="equal">
+      <formula>"Moyenne"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="78" priority="84" operator="equal">
+      <formula>"Haute"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E127">
+    <cfRule type="cellIs" dxfId="77" priority="79" operator="equal">
+      <formula>"Faible"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="76" priority="80" operator="equal">
+      <formula>"Moyenne"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="75" priority="81" operator="equal">
+      <formula>"Haute"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E128">
+    <cfRule type="cellIs" dxfId="74" priority="76" operator="equal">
+      <formula>"Faible"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="73" priority="77" operator="equal">
+      <formula>"Moyenne"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="72" priority="78" operator="equal">
+      <formula>"Haute"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G128">
+    <cfRule type="cellIs" dxfId="71" priority="73" operator="equal">
+      <formula>"Faible"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="70" priority="74" operator="equal">
+      <formula>"Moyenne"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="69" priority="75" operator="equal">
+      <formula>"Haute"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G129">
+    <cfRule type="cellIs" dxfId="68" priority="70" operator="equal">
+      <formula>"Faible"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="67" priority="71" operator="equal">
+      <formula>"Moyenne"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="66" priority="72" operator="equal">
+      <formula>"Haute"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G130">
+    <cfRule type="cellIs" dxfId="65" priority="67" operator="equal">
+      <formula>"Faible"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="64" priority="68" operator="equal">
+      <formula>"Moyenne"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="63" priority="69" operator="equal">
+      <formula>"Haute"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G131">
+    <cfRule type="cellIs" dxfId="62" priority="64" operator="equal">
+      <formula>"Faible"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="61" priority="65" operator="equal">
+      <formula>"Moyenne"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="60" priority="66" operator="equal">
+      <formula>"Haute"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G132">
+    <cfRule type="cellIs" dxfId="59" priority="61" operator="equal">
+      <formula>"Faible"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="58" priority="62" operator="equal">
+      <formula>"Moyenne"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="57" priority="63" operator="equal">
+      <formula>"Haute"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G150">
+    <cfRule type="cellIs" dxfId="56" priority="4" operator="equal">
+      <formula>"Faible"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="55" priority="5" operator="equal">
+      <formula>"Moyenne"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="54" priority="6" operator="equal">
+      <formula>"Haute"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G133">
+    <cfRule type="cellIs" dxfId="53" priority="55" operator="equal">
+      <formula>"Faible"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="56" operator="equal">
+      <formula>"Moyenne"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="51" priority="57" operator="equal">
+      <formula>"Haute"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G134">
+    <cfRule type="cellIs" dxfId="50" priority="52" operator="equal">
+      <formula>"Faible"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="49" priority="53" operator="equal">
+      <formula>"Moyenne"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="54" operator="equal">
+      <formula>"Haute"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G135">
+    <cfRule type="cellIs" dxfId="47" priority="49" operator="equal">
+      <formula>"Faible"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="50" operator="equal">
+      <formula>"Moyenne"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="45" priority="51" operator="equal">
+      <formula>"Haute"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G136">
+    <cfRule type="cellIs" dxfId="44" priority="46" operator="equal">
+      <formula>"Faible"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="43" priority="47" operator="equal">
+      <formula>"Moyenne"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="48" operator="equal">
+      <formula>"Haute"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G137">
+    <cfRule type="cellIs" dxfId="41" priority="43" operator="equal">
+      <formula>"Faible"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="44" operator="equal">
+      <formula>"Moyenne"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="39" priority="45" operator="equal">
+      <formula>"Haute"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G138">
+    <cfRule type="cellIs" dxfId="38" priority="40" operator="equal">
+      <formula>"Faible"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="37" priority="41" operator="equal">
+      <formula>"Moyenne"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="42" operator="equal">
+      <formula>"Haute"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G139">
+    <cfRule type="cellIs" dxfId="35" priority="37" operator="equal">
+      <formula>"Faible"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="38" operator="equal">
+      <formula>"Moyenne"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="39" operator="equal">
+      <formula>"Haute"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G140">
+    <cfRule type="cellIs" dxfId="32" priority="34" operator="equal">
+      <formula>"Faible"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="31" priority="35" operator="equal">
+      <formula>"Moyenne"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="36" operator="equal">
+      <formula>"Haute"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G141">
+    <cfRule type="cellIs" dxfId="29" priority="31" operator="equal">
+      <formula>"Faible"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="32" operator="equal">
+      <formula>"Moyenne"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="27" priority="33" operator="equal">
+      <formula>"Haute"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G142">
+    <cfRule type="cellIs" dxfId="26" priority="28" operator="equal">
+      <formula>"Faible"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="29" operator="equal">
+      <formula>"Moyenne"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="30" operator="equal">
+      <formula>"Haute"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G143">
+    <cfRule type="cellIs" dxfId="23" priority="25" operator="equal">
+      <formula>"Faible"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="26" operator="equal">
+      <formula>"Moyenne"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="27" operator="equal">
+      <formula>"Haute"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G144">
+    <cfRule type="cellIs" dxfId="20" priority="22" operator="equal">
+      <formula>"Faible"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="23" operator="equal">
+      <formula>"Moyenne"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="24" operator="equal">
+      <formula>"Haute"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G145">
+    <cfRule type="cellIs" dxfId="17" priority="19" operator="equal">
+      <formula>"Faible"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="20" operator="equal">
+      <formula>"Moyenne"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="21" operator="equal">
+      <formula>"Haute"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G146">
+    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
+      <formula>"Faible"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="17" operator="equal">
+      <formula>"Moyenne"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="18" operator="equal">
+      <formula>"Haute"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G147">
+    <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
+      <formula>"Faible"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="14" operator="equal">
+      <formula>"Moyenne"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="15" operator="equal">
+      <formula>"Haute"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G148">
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
+      <formula>"Faible"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="11" operator="equal">
+      <formula>"Moyenne"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="12" operator="equal">
+      <formula>"Haute"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G149">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+      <formula>"Faible"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
+      <formula>"Moyenne"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="9" operator="equal">
+      <formula>"Haute"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G151">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>"Faible"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"Moyenne"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>"Haute"</formula>
     </cfRule>
   </conditionalFormatting>
